--- a/ExcelProject-Part2.xlsx
+++ b/ExcelProject-Part2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abel.shiferaw\Desktop\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HaileMichael/Downloads/PYTHON/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBA026C-3F0C-46A4-896C-17FE9F1487DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC521594-8171-9742-9008-082C56B22080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="6" xr2:uid="{9C504889-49C9-40B1-AAA2-560E668D4FD1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" firstSheet="2" activeTab="6" xr2:uid="{9C504889-49C9-40B1-AAA2-560E668D4FD1}"/>
   </bookViews>
   <sheets>
     <sheet name="IF FUNCTION 01 Practice" sheetId="3" r:id="rId1"/>
@@ -22,6 +22,9 @@
     <sheet name="SUMIF Practice" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="9" r:id="rId8"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,9 +32,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -51,7 +52,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -88,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="850">
   <si>
     <t>ALFKI</t>
   </si>
@@ -2630,6 +2631,15 @@
   </si>
   <si>
     <t>CLASS NAME</t>
+  </si>
+  <si>
+    <t>STATUS(IFS)</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
   </si>
 </sst>
 </file>
@@ -2640,7 +2650,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2719,6 +2729,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2801,7 +2818,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2828,6 +2845,12 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2835,7 +2858,52 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Customer Info" xfId="3" xr:uid="{5B29114F-3462-423F-BB2A-9DE6CDF9AB03}"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="28">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2867,9 +2935,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -3281,7 +3346,7 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -5225,29 +5290,1363 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44907.508514583336" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="120" xr:uid="{F859F56C-ABD1-0F43-9F6F-3B59892C9A6F}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="table6"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="MOVIE" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="GROSS" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="153952592" maxValue="936662225" count="120">
+        <n v="159220819"/>
+        <n v="191719337"/>
+        <n v="210614939"/>
+        <n v="215288866"/>
+        <n v="172956409"/>
+        <n v="217350219"/>
+        <n v="355559216"/>
+        <n v="334191110"/>
+        <n v="350126372"/>
+        <n v="760507625"/>
+        <n v="459005868"/>
+        <n v="858373000"/>
+        <n v="678815482"/>
+        <n v="204380071"/>
+        <n v="218967620"/>
+        <n v="504014165"/>
+        <n v="234760478"/>
+        <n v="700059566"/>
+        <n v="169106725"/>
+        <n v="408084349"/>
+        <n v="426829839"/>
+        <n v="244082982"/>
+        <n v="191452396"/>
+        <n v="363070709"/>
+        <n v="324591735"/>
+        <n v="368065385"/>
+        <n v="162805434"/>
+        <n v="435110554"/>
+        <n v="156645693"/>
+        <n v="166167230"/>
+        <n v="486295561"/>
+        <n v="380843261"/>
+        <n v="400738009"/>
+        <n v="477371890"/>
+        <n v="353007020"/>
+        <n v="176040665"/>
+        <n v="187705427"/>
+        <n v="167767189"/>
+        <n v="200852579"/>
+        <n v="389813101"/>
+        <n v="159342015"/>
+        <n v="165092268"/>
+        <n v="381409310"/>
+        <n v="302305431"/>
+        <n v="318087620"/>
+        <n v="608581744"/>
+        <n v="356461711"/>
+        <n v="409013994"/>
+        <n v="328828874"/>
+        <n v="211593228"/>
+        <n v="153952592"/>
+        <n v="171015687"/>
+        <n v="335451311"/>
+        <n v="404540171"/>
+        <n v="402828120"/>
+        <n v="652270625"/>
+        <n v="417719760"/>
+        <n v="226277068"/>
+        <n v="154058340"/>
+        <n v="336045770"/>
+        <n v="268492764"/>
+        <n v="289916256"/>
+        <n v="423315812"/>
+        <n v="178406268"/>
+        <n v="172825435"/>
+        <n v="206445654"/>
+        <n v="532177324"/>
+        <n v="217049603"/>
+        <n v="157019771"/>
+        <n v="441226247"/>
+        <n v="322719944"/>
+        <n v="407022860"/>
+        <n v="373585825"/>
+        <n v="390532085"/>
+        <n v="474544677"/>
+        <n v="310676740"/>
+        <n v="380270577"/>
+        <n v="460998507"/>
+        <n v="515198941"/>
+        <n v="309306177"/>
+        <n v="936662225"/>
+        <n v="620181382"/>
+        <n v="161197785"/>
+        <n v="218815487"/>
+        <n v="205881154"/>
+        <n v="623357910"/>
+        <n v="535234033"/>
+        <n v="448139099"/>
+        <n v="232906145"/>
+        <n v="158348367"/>
+        <n v="277322503"/>
+        <n v="254464305"/>
+        <n v="159582188"/>
+        <n v="408010692"/>
+        <n v="424668047"/>
+        <n v="337135885"/>
+        <n v="364001123"/>
+        <n v="422783777"/>
+        <n v="543638043"/>
+        <n v="377845905"/>
+        <n v="342551365"/>
+        <n v="171479930"/>
+        <n v="281576461"/>
+        <n v="370782930"/>
+        <n v="183637894"/>
+        <n v="368384330"/>
+        <n v="176484651"/>
+        <n v="659363944"/>
+        <n v="222498679"/>
+        <n v="245852179"/>
+        <n v="415004880"/>
+        <n v="434038008"/>
+        <n v="352390543"/>
+        <n v="402111870"/>
+        <n v="293004164"/>
+        <n v="175084580"/>
+        <n v="223808164"/>
+        <n v="209255921"/>
+        <n v="412563408"/>
+        <n v="341268248"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="YEAR" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1939" maxValue="2020" count="39">
+        <n v="2019"/>
+        <n v="2014"/>
+        <n v="2007"/>
+        <n v="2018"/>
+        <n v="1997"/>
+        <n v="1992"/>
+        <n v="2010"/>
+        <n v="2009"/>
+        <n v="2015"/>
+        <n v="2020"/>
+        <n v="1991"/>
+        <n v="2017"/>
+        <n v="1984"/>
+        <n v="2011"/>
+        <n v="2016"/>
+        <n v="2006"/>
+        <n v="2013"/>
+        <n v="2012"/>
+        <n v="1982"/>
+        <n v="1987"/>
+        <n v="2003"/>
+        <n v="2000"/>
+        <n v="1939"/>
+        <n v="2001"/>
+        <n v="1996"/>
+        <n v="1993"/>
+        <n v="1990"/>
+        <n v="1988"/>
+        <n v="1998"/>
+        <n v="2004"/>
+        <n v="2002"/>
+        <n v="1999"/>
+        <n v="2005"/>
+        <n v="1977"/>
+        <n v="1983"/>
+        <n v="2008"/>
+        <n v="1973"/>
+        <n v="1994"/>
+        <n v="1995"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="RATING" numFmtId="0">
+      <sharedItems count="4">
+        <s v="R"/>
+        <s v="G"/>
+        <s v="PG"/>
+        <s v="PG-13"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="120">
+  <r>
+    <s v="1917"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="22 Jump Street"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="300"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="A Star Is Born"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Air Force One"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Aladdin"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Aladdin"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Alice in Wonderland"/>
+    <x v="7"/>
+    <x v="6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="American Sniper"/>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Avatar"/>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Avengers: Age of Ultron"/>
+    <x v="10"/>
+    <x v="8"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Avengers: Endgame"/>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Avengers: Infinity War"/>
+    <x v="12"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Bad Boys for Life"/>
+    <x v="13"/>
+    <x v="9"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Beauty and the Beast"/>
+    <x v="14"/>
+    <x v="10"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Beauty and the Beast"/>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Beverly Hills Cop"/>
+    <x v="16"/>
+    <x v="12"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Black Panther"/>
+    <x v="17"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Bridesmaids"/>
+    <x v="18"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Captain America: Civil War"/>
+    <x v="19"/>
+    <x v="14"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Captain Marvel"/>
+    <x v="20"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Cars"/>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Cars 2"/>
+    <x v="22"/>
+    <x v="13"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Deadpool"/>
+    <x v="23"/>
+    <x v="14"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Deadpool 2"/>
+    <x v="24"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Despicable Me 2"/>
+    <x v="25"/>
+    <x v="16"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Django Unchained"/>
+    <x v="26"/>
+    <x v="17"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="E.T. the Extra-Terrestrial"/>
+    <x v="27"/>
+    <x v="18"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Fatal Attraction"/>
+    <x v="28"/>
+    <x v="19"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Fifty Shades of Grey"/>
+    <x v="29"/>
+    <x v="8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Finding Dory"/>
+    <x v="30"/>
+    <x v="14"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Finding Nemo"/>
+    <x v="31"/>
+    <x v="20"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Frozen"/>
+    <x v="32"/>
+    <x v="16"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Frozen II"/>
+    <x v="33"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Furious 7"/>
+    <x v="34"/>
+    <x v="8"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Get Out"/>
+    <x v="35"/>
+    <x v="11"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Gladiator"/>
+    <x v="36"/>
+    <x v="21"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Gone Girl"/>
+    <x v="37"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Gone with the Wind"/>
+    <x v="38"/>
+    <x v="22"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Guardians of the Galaxy Vol. 2"/>
+    <x v="39"/>
+    <x v="11"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Halloween"/>
+    <x v="40"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Hannibal"/>
+    <x v="41"/>
+    <x v="23"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Harry Potter and the Deathly Hallows: Part 2"/>
+    <x v="42"/>
+    <x v="13"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Harry Potter and the Half-Blood Prince"/>
+    <x v="43"/>
+    <x v="7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Harry Potter and the Sorcerer's Stone"/>
+    <x v="44"/>
+    <x v="23"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Incredibles 2"/>
+    <x v="45"/>
+    <x v="3"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Inside Out"/>
+    <x v="46"/>
+    <x v="8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Iron Man 3"/>
+    <x v="47"/>
+    <x v="16"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="It"/>
+    <x v="48"/>
+    <x v="11"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="It Chapter Two"/>
+    <x v="49"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Jerry Maguire"/>
+    <x v="50"/>
+    <x v="24"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="John Wick: Chapter 3 - Parabellum"/>
+    <x v="51"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Joker"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Jumanji: Welcome to the Jungle"/>
+    <x v="53"/>
+    <x v="11"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Jurassic Park"/>
+    <x v="54"/>
+    <x v="25"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Jurassic World"/>
+    <x v="55"/>
+    <x v="8"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Jurassic World: Fallen Kingdom"/>
+    <x v="56"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Logan"/>
+    <x v="57"/>
+    <x v="11"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Mad Max: Fury Road"/>
+    <x v="58"/>
+    <x v="8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Minions"/>
+    <x v="59"/>
+    <x v="8"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Monsters University"/>
+    <x v="60"/>
+    <x v="16"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Monsters, Inc."/>
+    <x v="61"/>
+    <x v="23"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Pirates of the Caribbean: Dead Man's Chest"/>
+    <x v="62"/>
+    <x v="15"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Pretty Woman"/>
+    <x v="63"/>
+    <x v="26"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Rain Man"/>
+    <x v="64"/>
+    <x v="27"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Ratatouille"/>
+    <x v="65"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Rogue One: A Star Wars Story"/>
+    <x v="66"/>
+    <x v="14"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Saving Private Ryan"/>
+    <x v="67"/>
+    <x v="28"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Scary Movie"/>
+    <x v="68"/>
+    <x v="21"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Shrek 2"/>
+    <x v="69"/>
+    <x v="29"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Shrek the Third"/>
+    <x v="70"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Spider-Man"/>
+    <x v="71"/>
+    <x v="30"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Spider-Man 2"/>
+    <x v="72"/>
+    <x v="29"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Spider-Man: Far from Home"/>
+    <x v="73"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Star Wars: Episode I - The Phantom Menace"/>
+    <x v="74"/>
+    <x v="31"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Star Wars: Episode II - Attack of the Clones"/>
+    <x v="75"/>
+    <x v="30"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Star Wars: Episode III - Revenge of the Sith"/>
+    <x v="76"/>
+    <x v="32"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Star Wars: Episode IV - A New Hope"/>
+    <x v="77"/>
+    <x v="33"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Star Wars: Episode IX - The Rise of Skywalker"/>
+    <x v="78"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Star Wars: Episode VI - Return of the Jedi"/>
+    <x v="79"/>
+    <x v="34"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Star Wars: Episode VII - The Force Awakens"/>
+    <x v="80"/>
+    <x v="8"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Star Wars: Episode VIII - The Last Jedi"/>
+    <x v="81"/>
+    <x v="11"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Straight Outta Compton"/>
+    <x v="82"/>
+    <x v="8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Ted"/>
+    <x v="83"/>
+    <x v="17"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Terminator 2: Judgment Day"/>
+    <x v="84"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="The Avengers"/>
+    <x v="85"/>
+    <x v="17"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="The Dark Knight"/>
+    <x v="86"/>
+    <x v="35"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="The Dark Knight Rises"/>
+    <x v="87"/>
+    <x v="17"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="The Exorcist"/>
+    <x v="88"/>
+    <x v="36"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="The Firm"/>
+    <x v="89"/>
+    <x v="25"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="The Hangover"/>
+    <x v="90"/>
+    <x v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="The Hangover Part II"/>
+    <x v="91"/>
+    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="The Heat"/>
+    <x v="92"/>
+    <x v="16"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="The Hunger Games"/>
+    <x v="93"/>
+    <x v="17"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="The Hunger Games: Catching Fire"/>
+    <x v="94"/>
+    <x v="16"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="The Hunger Games: Mockingjay - Part 1"/>
+    <x v="95"/>
+    <x v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="The Jungle Book"/>
+    <x v="96"/>
+    <x v="14"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="The Lion King"/>
+    <x v="97"/>
+    <x v="37"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="The Lion King"/>
+    <x v="98"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="The Lord of the Rings: The Return of the King"/>
+    <x v="99"/>
+    <x v="20"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="The Lord of the Rings: The Two Towers"/>
+    <x v="100"/>
+    <x v="30"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="The Matrix"/>
+    <x v="101"/>
+    <x v="31"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="The Matrix Reloaded"/>
+    <x v="102"/>
+    <x v="20"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="The Passion of the Christ"/>
+    <x v="103"/>
+    <x v="29"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="The Revenant"/>
+    <x v="104"/>
+    <x v="8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="The Secret Life of Pets"/>
+    <x v="105"/>
+    <x v="14"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="There's Something About Mary"/>
+    <x v="106"/>
+    <x v="28"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Titanic"/>
+    <x v="107"/>
+    <x v="4"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Toy Story"/>
+    <x v="108"/>
+    <x v="38"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Toy Story 2"/>
+    <x v="109"/>
+    <x v="31"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Toy Story 3"/>
+    <x v="110"/>
+    <x v="6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Toy Story 4"/>
+    <x v="111"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Transformers: Dark of the Moon"/>
+    <x v="112"/>
+    <x v="13"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Transformers: Revenge of the Fallen"/>
+    <x v="113"/>
+    <x v="7"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Up"/>
+    <x v="114"/>
+    <x v="7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Us"/>
+    <x v="115"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="WALL·E"/>
+    <x v="116"/>
+    <x v="35"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Wedding Crashers"/>
+    <x v="117"/>
+    <x v="32"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Wonder Woman"/>
+    <x v="118"/>
+    <x v="11"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Zootopia"/>
+    <x v="119"/>
+    <x v="14"/>
+    <x v="2"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{82A223F8-1B1E-C347-B8FF-A765A32DEF8F}" name="PivotTable3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H19:H59" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="40">
+        <item x="22"/>
+        <item x="36"/>
+        <item x="33"/>
+        <item x="18"/>
+        <item x="34"/>
+        <item x="12"/>
+        <item x="19"/>
+        <item x="27"/>
+        <item x="26"/>
+        <item x="10"/>
+        <item x="5"/>
+        <item x="25"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="24"/>
+        <item x="4"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item x="21"/>
+        <item x="23"/>
+        <item x="30"/>
+        <item x="20"/>
+        <item x="29"/>
+        <item x="32"/>
+        <item x="15"/>
+        <item x="2"/>
+        <item x="35"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="16"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item x="14"/>
+        <item x="11"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="40">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5F5637D9-B7E6-3E4C-8E14-3E56F1867EFC}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G19:G24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="44" showAll="0">
+      <items count="121">
+        <item x="50"/>
+        <item x="58"/>
+        <item x="28"/>
+        <item x="68"/>
+        <item x="89"/>
+        <item x="0"/>
+        <item x="40"/>
+        <item x="92"/>
+        <item x="82"/>
+        <item x="26"/>
+        <item x="41"/>
+        <item x="29"/>
+        <item x="37"/>
+        <item x="18"/>
+        <item x="51"/>
+        <item x="101"/>
+        <item x="64"/>
+        <item x="4"/>
+        <item x="115"/>
+        <item x="35"/>
+        <item x="106"/>
+        <item x="63"/>
+        <item x="104"/>
+        <item x="36"/>
+        <item x="22"/>
+        <item x="1"/>
+        <item x="38"/>
+        <item x="13"/>
+        <item x="84"/>
+        <item x="65"/>
+        <item x="117"/>
+        <item x="2"/>
+        <item x="49"/>
+        <item x="3"/>
+        <item x="67"/>
+        <item x="5"/>
+        <item x="83"/>
+        <item x="14"/>
+        <item x="108"/>
+        <item x="116"/>
+        <item x="57"/>
+        <item x="88"/>
+        <item x="16"/>
+        <item x="21"/>
+        <item x="109"/>
+        <item x="91"/>
+        <item x="60"/>
+        <item x="90"/>
+        <item x="102"/>
+        <item x="61"/>
+        <item x="114"/>
+        <item x="43"/>
+        <item x="79"/>
+        <item x="75"/>
+        <item x="44"/>
+        <item x="70"/>
+        <item x="24"/>
+        <item x="48"/>
+        <item x="7"/>
+        <item x="52"/>
+        <item x="59"/>
+        <item x="95"/>
+        <item x="119"/>
+        <item x="100"/>
+        <item x="8"/>
+        <item x="112"/>
+        <item x="34"/>
+        <item x="6"/>
+        <item x="46"/>
+        <item x="23"/>
+        <item x="96"/>
+        <item x="25"/>
+        <item x="105"/>
+        <item x="103"/>
+        <item x="72"/>
+        <item x="99"/>
+        <item x="76"/>
+        <item x="31"/>
+        <item x="42"/>
+        <item x="39"/>
+        <item x="73"/>
+        <item x="32"/>
+        <item x="113"/>
+        <item x="54"/>
+        <item x="53"/>
+        <item x="71"/>
+        <item x="93"/>
+        <item x="19"/>
+        <item x="47"/>
+        <item x="118"/>
+        <item x="110"/>
+        <item x="56"/>
+        <item x="97"/>
+        <item x="62"/>
+        <item x="94"/>
+        <item x="20"/>
+        <item x="111"/>
+        <item x="27"/>
+        <item x="69"/>
+        <item x="87"/>
+        <item x="10"/>
+        <item x="77"/>
+        <item x="74"/>
+        <item x="33"/>
+        <item x="30"/>
+        <item x="15"/>
+        <item x="78"/>
+        <item x="66"/>
+        <item x="86"/>
+        <item x="98"/>
+        <item x="45"/>
+        <item x="81"/>
+        <item x="85"/>
+        <item x="55"/>
+        <item x="107"/>
+        <item x="12"/>
+        <item x="17"/>
+        <item x="9"/>
+        <item x="11"/>
+        <item x="80"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="40">
+        <item x="22"/>
+        <item x="36"/>
+        <item x="33"/>
+        <item x="18"/>
+        <item x="34"/>
+        <item x="12"/>
+        <item x="19"/>
+        <item x="27"/>
+        <item x="26"/>
+        <item x="10"/>
+        <item x="5"/>
+        <item x="25"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="24"/>
+        <item x="4"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item x="21"/>
+        <item x="23"/>
+        <item x="30"/>
+        <item x="20"/>
+        <item x="29"/>
+        <item x="32"/>
+        <item x="15"/>
+        <item x="2"/>
+        <item x="35"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="13"/>
+        <item x="17"/>
+        <item x="16"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item x="14"/>
+        <item x="11"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B51B56F0-2795-425A-9F95-630BE21B6E88}" name="Table2" displayName="Table2" ref="B9:D20" totalsRowShown="0" headerRowDxfId="20">
-  <autoFilter ref="B9:D20" xr:uid="{7EF28A09-475B-4A8C-844E-C16FB2512675}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B51B56F0-2795-425A-9F95-630BE21B6E88}" name="Table2" displayName="Table2" ref="B9:E20" totalsRowShown="0" headerRowDxfId="27">
+  <autoFilter ref="B9:E20" xr:uid="{7EF28A09-475B-4A8C-844E-C16FB2512675}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{E4E64CFB-9945-4C15-A551-B8D7EF06A537}" name="PROJECTS"/>
-    <tableColumn id="2" xr3:uid="{D1AB6584-6930-421A-AA98-1EA108A173B7}" name="PERCENTAGE" dataDxfId="19" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{7FA28F0A-B617-4825-892A-86E0AF338E4A}" name="STATUS"/>
+    <tableColumn id="2" xr3:uid="{D1AB6584-6930-421A-AA98-1EA108A173B7}" name="PERCENTAGE" dataDxfId="26" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{7FA28F0A-B617-4825-892A-86E0AF338E4A}" name="STATUS">
+      <calculatedColumnFormula>IF(C10=1, "COMPLETE", IF(C10&gt;0, "IN PROGRESS", "NOT STARTED"))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{3F30DEC4-E858-C240-AF68-CCC2C381A867}" name="STATUS(IFS)" dataDxfId="7">
+      <calculatedColumnFormula>_xlfn.IFS(C10 = 1, "COMPLETED", C10 &gt; 0, "IN PROGRESS",C10 = 0, "NOT STARTED")</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E96C941D-2748-4BFA-9175-20DE8D82015E}" name="Table28" displayName="Table28" ref="B9:E20" totalsRowShown="0" headerRowDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E96C941D-2748-4BFA-9175-20DE8D82015E}" name="Table28" displayName="Table28" ref="B9:E20" totalsRowShown="0" headerRowDxfId="25">
   <autoFilter ref="B9:E20" xr:uid="{7EF28A09-475B-4A8C-844E-C16FB2512675}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{E29561B7-DC0C-4930-BB09-664400E9B874}" name="PROJECTS"/>
-    <tableColumn id="5" xr3:uid="{7618AB37-5B72-40A8-8C15-9DE087F8CB9F}" name="DUE DATE" dataDxfId="17">
+    <tableColumn id="5" xr3:uid="{7618AB37-5B72-40A8-8C15-9DE087F8CB9F}" name="DUE DATE" dataDxfId="24">
       <calculatedColumnFormula>TODAY()+12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{6A55012A-8882-4F48-BB58-C8756D3DDB37}" name="PERCENTAGE" dataDxfId="16" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{894B24EC-5522-489C-992E-2FE14787EBB4}" name="STATUS">
-      <calculatedColumnFormula>IF(D10=1, "COMPLETE", IF(D10&gt;0, "IN PROGRESS", "NOT STARTED"))</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{6A55012A-8882-4F48-BB58-C8756D3DDB37}" name="PERCENTAGE" dataDxfId="23" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{894B24EC-5522-489C-992E-2FE14787EBB4}" name="STATUS" dataDxfId="6">
+      <calculatedColumnFormula>IF(C10&gt;TODAY(), _xlfn.CONCAT(IF(D10=1, "COMPLETE", IF(D10&gt;0, "IN PROGRESS", "NOT STARTED"))," ",TEXT(C10,"MM-DD-YY")),_xlfn.CONCAT(IF(D10=1,"COMPLETE",IF(D10&gt;0,"IN PROGRESS","NOT STARTED"))," ","PAST DUE"))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5255,18 +6654,18 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CAEF6BB-F739-4062-A2C3-CA5AEB251540}" name="CustomerInfo" displayName="CustomerInfo" ref="A1:I92" totalsRowShown="0" dataDxfId="15" tableBorderDxfId="14" dataCellStyle="Normal_Customer Info">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CAEF6BB-F739-4062-A2C3-CA5AEB251540}" name="CustomerInfo" displayName="CustomerInfo" ref="A1:I92" totalsRowShown="0" dataDxfId="22" tableBorderDxfId="21" dataCellStyle="Normal_Customer Info">
   <autoFilter ref="A1:I92" xr:uid="{33761F1C-CD1E-4D9D-A116-776D8C10A0F3}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{0B21E4DF-1BE9-442C-91B6-5D982E20EAAF}" name="Customer ID" dataDxfId="13" dataCellStyle="Normal_Customer Info"/>
-    <tableColumn id="2" xr3:uid="{B2303E18-46EF-4012-AFFF-2F36313522E1}" name="Company Name" dataDxfId="12" dataCellStyle="Normal_Customer Info"/>
-    <tableColumn id="3" xr3:uid="{0EB485C1-E027-4E44-9816-163BE46CC5BD}" name="Contact Name" dataDxfId="11" dataCellStyle="Normal_Customer Info"/>
-    <tableColumn id="5" xr3:uid="{1CD1DFB3-CC11-4FF5-BE05-FBD86F1E03DC}" name="Address" dataDxfId="10" dataCellStyle="Normal_Customer Info"/>
-    <tableColumn id="6" xr3:uid="{6F40B2DC-786B-44FB-BF57-27C1F3C11A50}" name="City" dataDxfId="9" dataCellStyle="Normal_Customer Info"/>
-    <tableColumn id="7" xr3:uid="{BE59FE62-06B3-4539-AAEF-4B233706746D}" name="Region" dataDxfId="8" dataCellStyle="Normal_Customer Info"/>
-    <tableColumn id="8" xr3:uid="{353BC7A9-288B-485C-BD71-CE2CCA02F728}" name="Postal Code" dataDxfId="7" dataCellStyle="Normal_Customer Info"/>
-    <tableColumn id="9" xr3:uid="{0F98A9A0-D426-491A-8D7E-9B7649B52B1D}" name="Country" dataDxfId="6" dataCellStyle="Normal_Customer Info"/>
-    <tableColumn id="10" xr3:uid="{0B3205FC-9D0A-4B7A-9CFA-900C03ED71FB}" name="Phone" dataDxfId="5" dataCellStyle="Normal_Customer Info"/>
+    <tableColumn id="1" xr3:uid="{0B21E4DF-1BE9-442C-91B6-5D982E20EAAF}" name="Customer ID" dataDxfId="20" dataCellStyle="Normal_Customer Info"/>
+    <tableColumn id="2" xr3:uid="{B2303E18-46EF-4012-AFFF-2F36313522E1}" name="Company Name" dataDxfId="19" dataCellStyle="Normal_Customer Info"/>
+    <tableColumn id="3" xr3:uid="{0EB485C1-E027-4E44-9816-163BE46CC5BD}" name="Contact Name" dataDxfId="18" dataCellStyle="Normal_Customer Info"/>
+    <tableColumn id="5" xr3:uid="{1CD1DFB3-CC11-4FF5-BE05-FBD86F1E03DC}" name="Address" dataDxfId="17" dataCellStyle="Normal_Customer Info"/>
+    <tableColumn id="6" xr3:uid="{6F40B2DC-786B-44FB-BF57-27C1F3C11A50}" name="City" dataDxfId="16" dataCellStyle="Normal_Customer Info"/>
+    <tableColumn id="7" xr3:uid="{BE59FE62-06B3-4539-AAEF-4B233706746D}" name="Region" dataDxfId="15" dataCellStyle="Normal_Customer Info"/>
+    <tableColumn id="8" xr3:uid="{353BC7A9-288B-485C-BD71-CE2CCA02F728}" name="Postal Code" dataDxfId="14" dataCellStyle="Normal_Customer Info"/>
+    <tableColumn id="9" xr3:uid="{0F98A9A0-D426-491A-8D7E-9B7649B52B1D}" name="Country" dataDxfId="13" dataCellStyle="Normal_Customer Info"/>
+    <tableColumn id="10" xr3:uid="{0B3205FC-9D0A-4B7A-9CFA-900C03ED71FB}" name="Phone" dataDxfId="12" dataCellStyle="Normal_Customer Info"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5277,14 +6676,24 @@
   <autoFilter ref="B10:H17" xr:uid="{20B99242-5724-40B5-9009-0C629037E436}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{FD1BF31B-F181-4892-8DEA-D9BDFD530C7F}" name="TRAINING CODE"/>
-    <tableColumn id="2" xr3:uid="{E70E2EB2-D96E-4DF5-BC55-78AA6F7EDC88}" name="CLASS"/>
-    <tableColumn id="3" xr3:uid="{E2D5E53C-F135-4D8C-AE67-B7149C399860}" name="BRANCH"/>
-    <tableColumn id="4" xr3:uid="{B30C424E-11CD-470B-92EB-D5D54D805653}" name="YEAR"/>
-    <tableColumn id="5" xr3:uid="{88DAC759-628A-41A0-8715-0ED75C5C3082}" name="LEVEL CODE" dataDxfId="4">
+    <tableColumn id="2" xr3:uid="{E70E2EB2-D96E-4DF5-BC55-78AA6F7EDC88}" name="CLASS">
+      <calculatedColumnFormula>LEFT(B11,2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{E2D5E53C-F135-4D8C-AE67-B7149C399860}" name="BRANCH">
+      <calculatedColumnFormula>MID(B11,4,2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{B30C424E-11CD-470B-92EB-D5D54D805653}" name="YEAR">
+      <calculatedColumnFormula>MID(B11,7,4)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{88DAC759-628A-41A0-8715-0ED75C5C3082}" name="LEVEL CODE" dataDxfId="2">
       <calculatedColumnFormula>RIGHT(Table3[[#This Row],[TRAINING CODE]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D9B352CE-4C3E-4CEE-89A5-9D991E3DE954}" name="LEVEL"/>
-    <tableColumn id="7" xr3:uid="{56FB84C4-842C-45D9-B9B8-56E1C80F2C98}" name="CLASS NAME"/>
+    <tableColumn id="6" xr3:uid="{D9B352CE-4C3E-4CEE-89A5-9D991E3DE954}" name="LEVEL" dataDxfId="1">
+      <calculatedColumnFormula>VLOOKUP(F11,Table4[],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{56FB84C4-842C-45D9-B9B8-56E1C80F2C98}" name="CLASS NAME" dataDxfId="0">
+      <calculatedColumnFormula>VLOOKUP(Table3[[#This Row],[CLASS]],Table46[],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5294,7 +6703,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{ABB36226-4DEB-4AA0-8FF0-40A243373A73}" name="Table4" displayName="Table4" ref="B25:C29" totalsRowShown="0">
   <autoFilter ref="B25:C29" xr:uid="{E7DC5DC1-B19A-4360-A7B3-4F8DA22B397E}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3944DD68-417D-492E-BCB1-3392F6FE7BE3}" name="LEVEL CODE" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{3944DD68-417D-492E-BCB1-3392F6FE7BE3}" name="LEVEL CODE" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{39DA51BD-1853-4265-B942-70D42DC20F6D}" name="LEVEL"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5308,7 +6717,7 @@
     <sortCondition ref="E25:E30"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{334C9C64-485B-403E-B9C3-88E194C4081C}" name="CLASS CODE" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{334C9C64-485B-403E-B9C3-88E194C4081C}" name="CLASS CODE" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{1E32367B-22DC-4FA7-9191-F28D5A07A69A}" name="CLASS"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5322,8 +6731,8 @@
     <sortCondition ref="B7:B127"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8E09452A-7B67-4C48-855D-CFBD7204DD60}" name="MOVIE" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{C278F0A8-15A3-422C-A7A5-B3194F40A299}" name="GROSS" dataDxfId="0" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{8E09452A-7B67-4C48-855D-CFBD7204DD60}" name="MOVIE" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{C278F0A8-15A3-422C-A7A5-B3194F40A299}" name="GROSS" dataDxfId="8" dataCellStyle="Currency"/>
     <tableColumn id="3" xr3:uid="{1EC25A71-CFAD-4981-86D7-F95D30A8DD08}" name="YEAR"/>
     <tableColumn id="4" xr3:uid="{224F018D-7E96-4C67-952B-CD3DDA3E031B}" name="RATING"/>
   </tableColumns>
@@ -5632,17 +7041,18 @@
   <dimension ref="B1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H1"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:8" ht="24" x14ac:dyDescent="0.3">
       <c r="B1" s="15" t="s">
         <v>667</v>
       </c>
@@ -5653,7 +7063,7 @@
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
     </row>
-    <row r="9" spans="2:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" ht="19" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>671</v>
       </c>
@@ -5663,8 +7073,11 @@
       <c r="D9" s="4" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E9" s="4" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>672</v>
       </c>
@@ -5675,116 +7088,258 @@
         <f>IF(C10=1, "COMPLETE", IF(C10&gt;0, "IN PROGRESS", "NOT STARTED"))</f>
         <v>IN PROGRESS</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E10" t="str">
+        <f t="shared" ref="E10:E20" si="0">_xlfn.IFS(C10 = 1, "COMPLETED", C10 &gt; 0, "IN PROGRESS",C10 = 0, "NOT STARTED")</f>
+        <v>IN PROGRESS</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>673</v>
       </c>
       <c r="C11" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D11" t="str">
+        <f t="shared" ref="D11:D20" si="1">IF(C11=1, "COMPLETE", IF(C11&gt;0, "IN PROGRESS", "NOT STARTED"))</f>
+        <v>COMPLETE</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>COMPLETED</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>674</v>
       </c>
       <c r="C12" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT STARTED</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT STARTED</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>675</v>
       </c>
       <c r="C13" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>IN PROGRESS</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>IN PROGRESS</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>676</v>
       </c>
       <c r="C14" s="8">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>IN PROGRESS</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>IN PROGRESS</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>677</v>
       </c>
       <c r="C15" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>COMPLETE</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>COMPLETED</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>678</v>
       </c>
       <c r="C16" s="8">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>IN PROGRESS</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>IN PROGRESS</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>679</v>
       </c>
       <c r="C17" s="8">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v>IN PROGRESS</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>IN PROGRESS</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>680</v>
       </c>
       <c r="C18" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT STARTED</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT STARTED</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>681</v>
       </c>
       <c r="C19" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>COMPLETE</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>COMPLETED</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>682</v>
       </c>
       <c r="C20" s="8">
         <v>0.44</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v>IN PROGRESS</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>IN PROGRESS</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:H1"/>
   </mergeCells>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6E944FF9-E042-7D49-BF9B-FA7C0970AD9F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:C20">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{AF01BDC7-DE89-A842-8CFF-AFC078944A84}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6E944FF9-E042-7D49-BF9B-FA7C0970AD9F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{AF01BDC7-DE89-A842-8CFF-AFC078944A84}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C10:C20</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B07DE2F-8589-41F1-85D2-D62625F9D668}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:I20"/>
+  <dimension ref="B1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="15.33203125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:12" ht="24" x14ac:dyDescent="0.3">
       <c r="B1" s="15" t="s">
         <v>667</v>
       </c>
@@ -5796,7 +7351,7 @@
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
     </row>
-    <row r="9" spans="2:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" ht="19" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>671</v>
       </c>
@@ -5809,187 +7364,193 @@
       <c r="E9" s="4" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L9" s="16"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>672</v>
       </c>
       <c r="C10" s="14">
         <f ca="1">TODAY()+2</f>
-        <v>44899</v>
+        <v>44909</v>
       </c>
       <c r="D10" s="8">
         <v>0.88</v>
       </c>
       <c r="E10" t="str">
-        <f>IF(D10=1, "COMPLETE", IF(D10&gt;0, "IN PROGRESS", "NOT STARTED"))</f>
-        <v>IN PROGRESS</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+        <f t="shared" ref="E10:E20" ca="1" si="0">IF(C10&gt;TODAY(), _xlfn.CONCAT(IF(D10=1, "COMPLETE", IF(D10&gt;0, "IN PROGRESS", "NOT STARTED"))," ",TEXT(C10,"MM-DD-YY")),_xlfn.CONCAT(IF(D10=1,"COMPLETE",IF(D10&gt;0,"IN PROGRESS","NOT STARTED"))," ","PAST DUE"))</f>
+        <v>IN PROGRESS 12-14-22</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>673</v>
       </c>
       <c r="C11" s="14">
         <f ca="1">TODAY()+12</f>
-        <v>44909</v>
+        <v>44919</v>
       </c>
       <c r="D11" s="8">
         <v>1</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" ref="E11:E20" si="0">IF(D11=1, "COMPLETE", IF(D11&gt;0, "IN PROGRESS", "NOT STARTED"))</f>
-        <v>COMPLETE</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="0"/>
+        <v>COMPLETE 12-24-22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>674</v>
       </c>
       <c r="C12" s="14">
         <f ca="1">TODAY()-3</f>
-        <v>44894</v>
+        <v>44904</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v>NOT STARTED</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="0"/>
+        <v>NOT STARTED PAST DUE</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>675</v>
       </c>
       <c r="C13" s="14">
         <f ca="1">TODAY()+10</f>
-        <v>44907</v>
+        <v>44917</v>
       </c>
       <c r="D13" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="0"/>
-        <v>IN PROGRESS</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="0"/>
+        <v>IN PROGRESS 12-22-22</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>676</v>
       </c>
       <c r="C14" s="14">
         <f ca="1">TODAY()+1</f>
-        <v>44898</v>
+        <v>44908</v>
       </c>
       <c r="D14" s="8">
         <v>0.1</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="0"/>
-        <v>IN PROGRESS</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="0"/>
+        <v>IN PROGRESS 12-13-22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>677</v>
       </c>
       <c r="C15" s="14">
         <f ca="1">TODAY()-5</f>
-        <v>44892</v>
+        <v>44902</v>
       </c>
       <c r="D15" s="8">
         <v>1</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="0"/>
-        <v>COMPLETE</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="0"/>
+        <v>COMPLETE PAST DUE</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>678</v>
       </c>
       <c r="C16" s="14">
         <f ca="1">TODAY()+2</f>
-        <v>44899</v>
+        <v>44909</v>
       </c>
       <c r="D16" s="8">
         <v>0.95</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="0"/>
-        <v>IN PROGRESS</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="0"/>
+        <v>IN PROGRESS 12-14-22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>679</v>
       </c>
       <c r="C17" s="14">
         <f ca="1">TODAY()+12</f>
-        <v>44909</v>
+        <v>44919</v>
       </c>
       <c r="D17" s="8">
         <v>0.43</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="0"/>
-        <v>IN PROGRESS</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="0"/>
+        <v>IN PROGRESS 12-24-22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>680</v>
       </c>
       <c r="C18" s="14">
         <f ca="1">TODAY()-1</f>
-        <v>44896</v>
+        <v>44906</v>
       </c>
       <c r="D18" s="8">
         <v>0</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="0"/>
-        <v>NOT STARTED</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="0"/>
+        <v>NOT STARTED PAST DUE</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>681</v>
       </c>
       <c r="C19" s="14">
         <f t="shared" ref="C19" ca="1" si="1">TODAY()+12</f>
-        <v>44909</v>
+        <v>44919</v>
       </c>
       <c r="D19" s="8">
         <v>1</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="0"/>
-        <v>COMPLETE</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="0"/>
+        <v>COMPLETE 12-24-22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>682</v>
       </c>
       <c r="C20" s="14">
         <f ca="1">TODAY()-3</f>
-        <v>44894</v>
+        <v>44904</v>
       </c>
       <c r="D20" s="8">
         <v>0.44</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="0"/>
-        <v>IN PROGRESS</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>IN PROGRESS PAST DUE</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:I1"/>
   </mergeCells>
+  <conditionalFormatting sqref="B10:E20">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="PAST DUE">
+      <formula>NOT(ISERROR(SEARCH("PAST DUE",B10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="C10:C20" calculatedColumn="1"/>
@@ -6007,14 +7568,14 @@
   <dimension ref="B1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="4.88671875" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="4.83203125" customWidth="1"/>
     <col min="4" max="4" width="31.6640625" customWidth="1"/>
     <col min="5" max="5" width="5" customWidth="1"/>
     <col min="6" max="6" width="27.6640625" customWidth="1"/>
@@ -6024,7 +7585,7 @@
     <col min="10" max="10" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:10" ht="24" x14ac:dyDescent="0.3">
       <c r="B1" s="15" t="s">
         <v>668</v>
       </c>
@@ -6037,7 +7598,7 @@
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
     </row>
-    <row r="8" spans="2:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10" ht="21" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>659</v>
       </c>
@@ -6060,24 +7621,36 @@
         <v>666</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:10" ht="21" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D9" s="5" t="str">
         <f>VLOOKUP(B9,CustomerInfo[#All],2,FALSE)</f>
-        <v>Alfreds Futterkiste</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+        <v>Bólido Comidas preparadas</v>
+      </c>
+      <c r="F9" s="5" t="str">
+        <f>VLOOKUP(B9, CustomerInfo[],4,FALSE)</f>
+        <v>C/ Araquil, 67</v>
+      </c>
+      <c r="G9" s="5" t="str">
+        <f>VLOOKUP(B9, CustomerInfo[],5,FALSE)</f>
+        <v>Madrid</v>
+      </c>
       <c r="H9" s="5" t="str">
-        <f>VLOOKUP(B9,CustomerInfo[#All],6,FALSE)</f>
+        <f>VLOOKUP(B9, CustomerInfo[],6,FALSE)</f>
         <v/>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="11" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="I9" s="5" t="str">
+        <f>VLOOKUP(B9, CustomerInfo[],7,FALSE)</f>
+        <v>28023</v>
+      </c>
+      <c r="J9" s="5" t="str">
+        <f>VLOOKUP(B9, CustomerInfo[],8,FALSE)</f>
+        <v>Spain</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="19" x14ac:dyDescent="0.25">
       <c r="D11" s="4" t="s">
         <v>661</v>
       </c>
@@ -6085,20 +7658,31 @@
         <v>662</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D12" s="5"/>
-      <c r="F12" s="5"/>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D12" s="5" t="str">
+        <f>VLOOKUP(B9,CustomerInfo[],3,FALSE)</f>
+        <v>Martín Sommer</v>
+      </c>
+      <c r="F12" s="5" t="str">
+        <f>VLOOKUP(B9,CustomerInfo[],9,FALSE)</f>
+        <v>(91) 555 22 82</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>$J$9="Canada"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{29D66EEB-98C7-41B4-91DB-89D2BF6B19A6}">
           <x14:formula1>
             <xm:f>'CUSTOMER INFO'!$A$2:$A$92</xm:f>
@@ -6117,14 +7701,14 @@
   <dimension ref="B1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="4.88671875" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="4.83203125" customWidth="1"/>
     <col min="4" max="4" width="31.6640625" customWidth="1"/>
     <col min="5" max="5" width="5" customWidth="1"/>
     <col min="6" max="6" width="27.6640625" customWidth="1"/>
@@ -6134,7 +7718,7 @@
     <col min="10" max="10" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:10" ht="24" x14ac:dyDescent="0.3">
       <c r="B1" s="15" t="s">
         <v>843</v>
       </c>
@@ -6147,7 +7731,7 @@
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
     </row>
-    <row r="8" spans="2:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10" ht="21" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>659</v>
       </c>
@@ -6170,24 +7754,36 @@
         <v>666</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:10" ht="21" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="D9" s="5" t="str">
         <f>INDEX(CustomerInfo[[#All],[Company Name]],MATCH('INDEX MATCH FUNCTION Practice'!$B$9,CustomerInfo[[#All],[Customer ID]],0))</f>
-        <v>Around the Horn</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5" t="str">
-        <f>VLOOKUP(B9,CustomerInfo[#All],6,FALSE)</f>
-        <v/>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="11" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+        <v>Bottom-Dollar Markets</v>
+      </c>
+      <c r="F9" s="5" t="str">
+        <f>INDEX(CustomerInfo[Address],MATCH(B9,CustomerInfo[Customer ID],0))</f>
+        <v>23 Tsawassen Blvd.</v>
+      </c>
+      <c r="G9" t="str">
+        <f>INDEX(CustomerInfo[City],MATCH(B9,CustomerInfo[Customer ID],0))</f>
+        <v>Tsawassen</v>
+      </c>
+      <c r="H9" t="str">
+        <f>INDEX(CustomerInfo[Region],MATCH(B9,CustomerInfo[Customer ID],0))</f>
+        <v>BC</v>
+      </c>
+      <c r="I9" t="str">
+        <f>INDEX(CustomerInfo[Postal Code],MATCH(B9,CustomerInfo[Customer ID],0))</f>
+        <v>T2F 8M4</v>
+      </c>
+      <c r="J9" t="str">
+        <f>INDEX(CustomerInfo[Country],MATCH(B9,CustomerInfo[Customer ID],0))</f>
+        <v>Canada</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="19" x14ac:dyDescent="0.25">
       <c r="D11" s="4" t="s">
         <v>661</v>
       </c>
@@ -6195,14 +7791,25 @@
         <v>662</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D12" s="5"/>
-      <c r="F12" s="5"/>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D12" s="5" t="str">
+        <f>INDEX(CustomerInfo[Contact Name],MATCH(B9,CustomerInfo[Customer ID],0))</f>
+        <v>Elizabeth Lincoln</v>
+      </c>
+      <c r="F12" s="5" t="str">
+        <f>INDEX(CustomerInfo[Phone],MATCH(B9,CustomerInfo[Customer ID],0))</f>
+        <v>(604) 555-4729</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>$J$9="Spain"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -6230,19 +7837,19 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
     <col min="4" max="4" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>650</v>
       </c>
@@ -6271,7 +7878,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -6300,7 +7907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -6329,7 +7936,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -6358,7 +7965,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -6387,7 +7994,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -6416,7 +8023,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
@@ -6445,7 +8052,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
@@ -6474,7 +8081,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>54</v>
       </c>
@@ -6503,7 +8110,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>62</v>
       </c>
@@ -6532,7 +8139,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>69</v>
       </c>
@@ -6561,7 +8168,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>78</v>
       </c>
@@ -6590,7 +8197,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>84</v>
       </c>
@@ -6619,7 +8226,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>92</v>
       </c>
@@ -6648,7 +8255,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>98</v>
       </c>
@@ -6677,7 +8284,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>106</v>
       </c>
@@ -6706,7 +8313,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>115</v>
       </c>
@@ -6735,7 +8342,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>121</v>
       </c>
@@ -6764,7 +8371,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>128</v>
       </c>
@@ -6793,7 +8400,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>135</v>
       </c>
@@ -6822,7 +8429,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>141</v>
       </c>
@@ -6851,7 +8458,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>149</v>
       </c>
@@ -6880,7 +8487,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>155</v>
       </c>
@@ -6909,7 +8516,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>161</v>
       </c>
@@ -6938,7 +8545,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>168</v>
       </c>
@@ -6967,7 +8574,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>175</v>
       </c>
@@ -6996,7 +8603,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>182</v>
       </c>
@@ -7025,7 +8632,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>187</v>
       </c>
@@ -7054,7 +8661,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>195</v>
       </c>
@@ -7083,7 +8690,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>203</v>
       </c>
@@ -7112,7 +8719,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>210</v>
       </c>
@@ -7141,7 +8748,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>217</v>
       </c>
@@ -7170,7 +8777,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>224</v>
       </c>
@@ -7199,7 +8806,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>233</v>
       </c>
@@ -7228,7 +8835,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>242</v>
       </c>
@@ -7257,7 +8864,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>250</v>
       </c>
@@ -7286,7 +8893,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>258</v>
       </c>
@@ -7315,7 +8922,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>265</v>
       </c>
@@ -7344,7 +8951,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>273</v>
       </c>
@@ -7373,7 +8980,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>281</v>
       </c>
@@ -7402,7 +9009,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>288</v>
       </c>
@@ -7431,7 +9038,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>295</v>
       </c>
@@ -7460,7 +9067,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>302</v>
       </c>
@@ -7489,7 +9096,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>309</v>
       </c>
@@ -7518,7 +9125,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>317</v>
       </c>
@@ -7547,7 +9154,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>324</v>
       </c>
@@ -7576,7 +9183,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>332</v>
       </c>
@@ -7605,7 +9212,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>340</v>
       </c>
@@ -7634,7 +9241,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>348</v>
       </c>
@@ -7663,7 +9270,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>355</v>
       </c>
@@ -7692,7 +9299,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>362</v>
       </c>
@@ -7721,7 +9328,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>370</v>
       </c>
@@ -7750,7 +9357,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>378</v>
       </c>
@@ -7779,7 +9386,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>385</v>
       </c>
@@ -7808,7 +9415,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>391</v>
       </c>
@@ -7837,7 +9444,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>396</v>
       </c>
@@ -7866,7 +9473,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>404</v>
       </c>
@@ -7895,7 +9502,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>411</v>
       </c>
@@ -7924,7 +9531,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>418</v>
       </c>
@@ -7953,7 +9560,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>424</v>
       </c>
@@ -7982,7 +9589,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>431</v>
       </c>
@@ -8011,7 +9618,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>437</v>
       </c>
@@ -8040,7 +9647,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>443</v>
       </c>
@@ -8069,7 +9676,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>449</v>
       </c>
@@ -8098,7 +9705,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>456</v>
       </c>
@@ -8127,7 +9734,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>461</v>
       </c>
@@ -8156,7 +9763,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>469</v>
       </c>
@@ -8185,7 +9792,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>476</v>
       </c>
@@ -8214,7 +9821,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>482</v>
       </c>
@@ -8243,7 +9850,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>489</v>
       </c>
@@ -8272,7 +9879,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>495</v>
       </c>
@@ -8301,7 +9908,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>503</v>
       </c>
@@ -8330,7 +9937,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>511</v>
       </c>
@@ -8359,7 +9966,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>517</v>
       </c>
@@ -8388,7 +9995,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>525</v>
       </c>
@@ -8417,7 +10024,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>531</v>
       </c>
@@ -8446,7 +10053,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>539</v>
       </c>
@@ -8475,7 +10082,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>546</v>
       </c>
@@ -8504,7 +10111,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>552</v>
       </c>
@@ -8533,7 +10140,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>560</v>
       </c>
@@ -8562,7 +10169,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>567</v>
       </c>
@@ -8591,7 +10198,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>572</v>
       </c>
@@ -8620,7 +10227,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>578</v>
       </c>
@@ -8649,7 +10256,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>585</v>
       </c>
@@ -8678,7 +10285,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>592</v>
       </c>
@@ -8707,7 +10314,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>599</v>
       </c>
@@ -8736,7 +10343,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>606</v>
       </c>
@@ -8765,7 +10372,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>613</v>
       </c>
@@ -8794,7 +10401,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>621</v>
       </c>
@@ -8823,7 +10430,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>628</v>
       </c>
@@ -8852,7 +10459,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>635</v>
       </c>
@@ -8881,7 +10488,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>642</v>
       </c>
@@ -8923,19 +10530,22 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="B1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1"/>
-    <col min="5" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:9" ht="24" x14ac:dyDescent="0.3">
       <c r="B1" s="15" t="s">
         <v>684</v>
       </c>
@@ -8947,7 +10557,7 @@
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>687</v>
       </c>
@@ -8970,7 +10580,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>690</v>
       </c>
@@ -8990,38 +10600,190 @@
         <f>RIGHT(Table3[[#This Row],[TRAINING CODE]],2)</f>
         <v>01</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G11" t="str">
+        <f>VLOOKUP(F11,Table4[],2,FALSE)</f>
+        <v>BEGINNER</v>
+      </c>
+      <c r="H11" t="str">
+        <f>VLOOKUP(Table3[[#This Row],[CLASS]],Table46[],2,FALSE)</f>
+        <v>EXCEL</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C12" t="str">
+        <f t="shared" ref="C12:C17" si="0">LEFT(B12,2)</f>
+        <v>WD</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" ref="D12:D17" si="1">MID(B12,4,2)</f>
+        <v>SL</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" ref="E12:E17" si="2">MID(B12,7,4)</f>
+        <v>2019</v>
+      </c>
+      <c r="F12" t="str">
+        <f>RIGHT(Table3[[#This Row],[TRAINING CODE]],2)</f>
+        <v>01</v>
+      </c>
+      <c r="G12" t="str">
+        <f>VLOOKUP(F12,Table4[],2,FALSE)</f>
+        <v>BEGINNER</v>
+      </c>
+      <c r="H12" t="str">
+        <f>VLOOKUP(Table3[[#This Row],[CLASS]],Table46[],2,FALSE)</f>
+        <v>WORD</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>EX</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>SL</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="2"/>
+        <v>2020</v>
+      </c>
+      <c r="F13" t="str">
+        <f>RIGHT(Table3[[#This Row],[TRAINING CODE]],2)</f>
+        <v>02</v>
+      </c>
+      <c r="G13" t="str">
+        <f>VLOOKUP(F13,Table4[],2,FALSE)</f>
+        <v>INTERMEDIATE</v>
+      </c>
+      <c r="H13" t="str">
+        <f>VLOOKUP(Table3[[#This Row],[CLASS]],Table46[],2,FALSE)</f>
+        <v>EXCEL</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>AC</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>LA</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="2"/>
+        <v>2020</v>
+      </c>
+      <c r="F14" t="str">
+        <f>RIGHT(Table3[[#This Row],[TRAINING CODE]],2)</f>
+        <v>01</v>
+      </c>
+      <c r="G14" t="str">
+        <f>VLOOKUP(F14,Table4[],2,FALSE)</f>
+        <v>BEGINNER</v>
+      </c>
+      <c r="H14" t="str">
+        <f>VLOOKUP(Table3[[#This Row],[CLASS]],Table46[],2,FALSE)</f>
+        <v>ACCESS</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>EX</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>SL</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="2"/>
+        <v>2020</v>
+      </c>
+      <c r="F15" t="str">
+        <f>RIGHT(Table3[[#This Row],[TRAINING CODE]],2)</f>
+        <v>03</v>
+      </c>
+      <c r="G15" t="str">
+        <f>VLOOKUP(F15,Table4[],2,FALSE)</f>
+        <v>ADVANCED</v>
+      </c>
+      <c r="H15" t="str">
+        <f>VLOOKUP(Table3[[#This Row],[CLASS]],Table46[],2,FALSE)</f>
+        <v>EXCEL</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>OU</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>SF</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="2"/>
+        <v>2019</v>
+      </c>
+      <c r="F16" t="str">
+        <f>RIGHT(Table3[[#This Row],[TRAINING CODE]],2)</f>
+        <v>01</v>
+      </c>
+      <c r="G16" t="str">
+        <f>VLOOKUP(F16,Table4[],2,FALSE)</f>
+        <v>BEGINNER</v>
+      </c>
+      <c r="H16" t="str">
+        <f>VLOOKUP(Table3[[#This Row],[CLASS]],Table46[],2,FALSE)</f>
+        <v>OUTLOOK</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>PP</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v>SL</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="2"/>
+        <v>2019</v>
+      </c>
+      <c r="F17" t="str">
+        <f>RIGHT(Table3[[#This Row],[TRAINING CODE]],2)</f>
+        <v>02</v>
+      </c>
+      <c r="G17" t="str">
+        <f>VLOOKUP(F17,Table4[],2,FALSE)</f>
+        <v>INTERMEDIATE</v>
+      </c>
+      <c r="H17" t="str">
+        <f>VLOOKUP(Table3[[#This Row],[CLASS]],Table46[],2,FALSE)</f>
+        <v>POWERPOINT</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>699</v>
       </c>
@@ -9035,7 +10797,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="9" t="s">
         <v>691</v>
       </c>
@@ -9049,7 +10811,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="9" t="s">
         <v>692</v>
       </c>
@@ -9063,7 +10825,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="9" t="s">
         <v>693</v>
       </c>
@@ -9077,7 +10839,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" s="9" t="s">
         <v>698</v>
       </c>
@@ -9091,7 +10853,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E30" s="9" t="s">
         <v>702</v>
       </c>
@@ -9122,20 +10884,23 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="B1:J127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" customWidth="1"/>
-    <col min="2" max="2" width="41.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" customWidth="1"/>
+    <col min="2" max="2" width="41.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" customWidth="1"/>
+    <col min="7" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="127" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:10" ht="24" x14ac:dyDescent="0.3">
       <c r="B1" s="15" t="s">
         <v>717</v>
       </c>
@@ -9145,7 +10910,7 @@
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>733</v>
       </c>
@@ -9171,7 +10936,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
         <v>839</v>
       </c>
@@ -9184,12 +10949,22 @@
       <c r="E8" t="s">
         <v>838</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G8" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1984</v>
+      </c>
+      <c r="I8" s="13">
+        <f>SUMIFS(Table6[GROSS],Table6[RATING],G8,Table6[YEAR],H8)</f>
+        <v>234760478</v>
+      </c>
+      <c r="J8" s="19">
+        <f>COUNTIF(Table6[RATING],G8)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>814</v>
       </c>
@@ -9203,7 +10978,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>840</v>
       </c>
@@ -9217,7 +10992,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>809</v>
       </c>
@@ -9231,7 +11006,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>821</v>
       </c>
@@ -9245,7 +11020,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>729</v>
       </c>
@@ -9259,7 +11034,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>729</v>
       </c>
@@ -9273,7 +11048,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>751</v>
       </c>
@@ -9287,7 +11062,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>798</v>
       </c>
@@ -9301,7 +11076,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>761</v>
       </c>
@@ -9315,7 +11090,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>771</v>
       </c>
@@ -9329,7 +11104,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>760</v>
       </c>
@@ -9342,8 +11117,14 @@
       <c r="E19" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="G19" s="17" t="s">
+        <v>848</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>763</v>
       </c>
@@ -9356,8 +11137,14 @@
       <c r="E20" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="G20" s="18" t="s">
+        <v>736</v>
+      </c>
+      <c r="H20" s="18">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>813</v>
       </c>
@@ -9370,8 +11157,14 @@
       <c r="E21" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="G21" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="H21" s="18">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>728</v>
       </c>
@@ -9384,8 +11177,14 @@
       <c r="E22" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="G22" s="18" t="s">
+        <v>795</v>
+      </c>
+      <c r="H22" s="18">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>728</v>
       </c>
@@ -9398,8 +11197,14 @@
       <c r="E23" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="G23" s="18" t="s">
+        <v>838</v>
+      </c>
+      <c r="H23" s="18">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>805</v>
       </c>
@@ -9412,8 +11217,14 @@
       <c r="E24" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="G24" s="18" t="s">
+        <v>849</v>
+      </c>
+      <c r="H24" s="18">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>762</v>
       </c>
@@ -9426,8 +11237,11 @@
       <c r="E25" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H25" s="18">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>825</v>
       </c>
@@ -9440,8 +11254,11 @@
       <c r="E26" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H26" s="18">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>779</v>
       </c>
@@ -9454,8 +11271,11 @@
       <c r="E27" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H27" s="18">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>773</v>
       </c>
@@ -9468,8 +11288,11 @@
       <c r="E28" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H28" s="18">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>725</v>
       </c>
@@ -9482,8 +11305,11 @@
       <c r="E29" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H29" s="18">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>732</v>
       </c>
@@ -9496,8 +11322,11 @@
       <c r="E30" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H30" s="18">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>797</v>
       </c>
@@ -9510,8 +11339,11 @@
       <c r="E31" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H31" s="18">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>801</v>
       </c>
@@ -9524,8 +11356,11 @@
       <c r="E32" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H32" s="18">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>746</v>
       </c>
@@ -9538,8 +11373,11 @@
       <c r="E33" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H33" s="18">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>829</v>
       </c>
@@ -9552,8 +11390,11 @@
       <c r="E34" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H34" s="18">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>743</v>
       </c>
@@ -9566,8 +11407,11 @@
       <c r="E35" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H35" s="18">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>835</v>
       </c>
@@ -9580,8 +11424,11 @@
       <c r="E36" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H36" s="18">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>827</v>
       </c>
@@ -9594,8 +11441,11 @@
       <c r="E37" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H37" s="18">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>738</v>
       </c>
@@ -9608,8 +11458,11 @@
       <c r="E38" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H38" s="18">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>721</v>
       </c>
@@ -9622,8 +11475,11 @@
       <c r="E39" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H39" s="18">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>744</v>
       </c>
@@ -9636,8 +11492,11 @@
       <c r="E40" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H40" s="18">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>739</v>
       </c>
@@ -9650,8 +11509,11 @@
       <c r="E41" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H41" s="18">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>791</v>
       </c>
@@ -9664,8 +11526,11 @@
       <c r="E42" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H42" s="18">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>819</v>
       </c>
@@ -9678,8 +11543,11 @@
       <c r="E43" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H43" s="18">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>815</v>
       </c>
@@ -9692,8 +11560,11 @@
       <c r="E44" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H44" s="18">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>826</v>
       </c>
@@ -9706,8 +11577,11 @@
       <c r="E45" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H45" s="18">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>731</v>
       </c>
@@ -9720,8 +11594,11 @@
       <c r="E46" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H46" s="18">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>786</v>
       </c>
@@ -9734,8 +11611,11 @@
       <c r="E47" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H47" s="18">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>832</v>
       </c>
@@ -9748,8 +11628,11 @@
       <c r="E48" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H48" s="18">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>828</v>
       </c>
@@ -9762,8 +11645,11 @@
       <c r="E49" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H49" s="18">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>787</v>
       </c>
@@ -9776,8 +11662,11 @@
       <c r="E50" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H50" s="18">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>756</v>
       </c>
@@ -9790,8 +11679,11 @@
       <c r="E51" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H51" s="18">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>753</v>
       </c>
@@ -9804,8 +11696,11 @@
       <c r="E52" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H52" s="18">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>737</v>
       </c>
@@ -9818,8 +11713,11 @@
       <c r="E53" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H53" s="18">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>748</v>
       </c>
@@ -9832,8 +11730,11 @@
       <c r="E54" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H54" s="18">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>778</v>
       </c>
@@ -9846,8 +11747,11 @@
       <c r="E55" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H55" s="18">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>800</v>
       </c>
@@ -9860,8 +11764,11 @@
       <c r="E56" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H56" s="18">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>810</v>
       </c>
@@ -9874,8 +11781,11 @@
       <c r="E57" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H57" s="18">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>837</v>
       </c>
@@ -9888,8 +11798,11 @@
       <c r="E58" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H58" s="18">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>824</v>
       </c>
@@ -9902,8 +11815,11 @@
       <c r="E59" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="H59" s="18" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>799</v>
       </c>
@@ -9917,7 +11833,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>782</v>
       </c>
@@ -9931,7 +11847,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>783</v>
       </c>
@@ -9945,7 +11861,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>765</v>
       </c>
@@ -9959,7 +11875,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>776</v>
       </c>
@@ -9973,7 +11889,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>670</v>
       </c>
@@ -9987,7 +11903,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>836</v>
       </c>
@@ -10001,7 +11917,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>750</v>
       </c>
@@ -10015,7 +11931,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>723</v>
       </c>
@@ -10029,7 +11945,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>722</v>
       </c>
@@ -10043,7 +11959,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>775</v>
       </c>
@@ -10057,7 +11973,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>817</v>
       </c>
@@ -10071,7 +11987,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>822</v>
       </c>
@@ -10085,7 +12001,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>730</v>
       </c>
@@ -10099,7 +12015,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>769</v>
       </c>
@@ -10113,7 +12029,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>808</v>
       </c>
@@ -10127,7 +12043,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>834</v>
       </c>
@@ -10141,7 +12057,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>742</v>
       </c>
@@ -10155,7 +12071,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>752</v>
       </c>
@@ -10169,7 +12085,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>781</v>
       </c>
@@ -10183,7 +12099,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>790</v>
       </c>
@@ -10197,7 +12113,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>785</v>
       </c>
@@ -10211,7 +12127,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>740</v>
       </c>
@@ -10225,7 +12141,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>754</v>
       </c>
@@ -10239,7 +12155,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>788</v>
       </c>
@@ -10253,7 +12169,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>741</v>
       </c>
@@ -10267,7 +12183,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>770</v>
       </c>
@@ -10281,7 +12197,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>755</v>
       </c>
@@ -10295,7 +12211,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>759</v>
       </c>
@@ -10309,7 +12225,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>767</v>
       </c>
@@ -10323,7 +12239,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>830</v>
       </c>
@@ -10337,7 +12253,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>807</v>
       </c>
@@ -10351,7 +12267,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>812</v>
       </c>
@@ -10365,7 +12281,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>766</v>
       </c>
@@ -10379,7 +12295,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>768</v>
       </c>
@@ -10393,7 +12309,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>772</v>
       </c>
@@ -10407,7 +12323,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>806</v>
       </c>
@@ -10421,7 +12337,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>833</v>
       </c>
@@ -10435,7 +12351,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>803</v>
       </c>
@@ -10449,7 +12365,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>804</v>
       </c>
@@ -10463,7 +12379,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>831</v>
       </c>
@@ -10477,7 +12393,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>780</v>
       </c>
@@ -10491,7 +12407,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>774</v>
       </c>
@@ -10505,7 +12421,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>794</v>
       </c>
@@ -10519,7 +12435,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>747</v>
       </c>
@@ -10533,7 +12449,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>719</v>
       </c>
@@ -10547,7 +12463,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>719</v>
       </c>
@@ -10561,7 +12477,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>789</v>
       </c>
@@ -10575,7 +12491,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>793</v>
       </c>
@@ -10589,7 +12505,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>823</v>
       </c>
@@ -10603,7 +12519,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>802</v>
       </c>
@@ -10617,7 +12533,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>796</v>
       </c>
@@ -10631,7 +12547,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>816</v>
       </c>
@@ -10645,7 +12561,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>745</v>
       </c>
@@ -10659,7 +12575,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>818</v>
       </c>
@@ -10673,7 +12589,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>764</v>
       </c>
@@ -10687,7 +12603,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>727</v>
       </c>
@@ -10701,7 +12617,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>724</v>
       </c>
@@ -10715,7 +12631,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>720</v>
       </c>
@@ -10729,7 +12645,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>718</v>
       </c>
@@ -10743,7 +12659,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>792</v>
       </c>
@@ -10757,7 +12673,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>784</v>
       </c>
@@ -10771,7 +12687,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>757</v>
       </c>
@@ -10785,7 +12701,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>820</v>
       </c>
@@ -10799,7 +12715,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>726</v>
       </c>
@@ -10813,7 +12729,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>811</v>
       </c>
@@ -10827,7 +12743,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>777</v>
       </c>
@@ -10841,7 +12757,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>749</v>
       </c>
@@ -10860,116 +12776,124 @@
     <mergeCell ref="B1:G1"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8" xr:uid="{FC8CDF21-EF5C-2445-8E55-D34B203403C9}">
+      <formula1>$G$20:$G$23</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8" xr:uid="{2EE9BD27-13EF-B34D-962D-D3B0577729C7}">
+      <formula1>$H$20:$H$58</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D53" r:id="rId1" display="https://www.boxofficemojo.com/year/2018/?ref_=bo_cso_table_1" xr:uid="{40A87CB3-DEE4-41E3-92CE-A890D8DC5CAB}"/>
-    <hyperlink ref="D106" r:id="rId2" display="https://www.boxofficemojo.com/year/2019/?ref_=bo_cso_table_2" xr:uid="{DE2185E5-10B5-4B13-82FD-AE34A5659279}"/>
-    <hyperlink ref="D23" r:id="rId3" display="https://www.boxofficemojo.com/year/2017/?ref_=bo_cso_table_3" xr:uid="{5F621E44-F95E-42F3-B0B4-C94DD5AED314}"/>
-    <hyperlink ref="D38" r:id="rId4" display="https://www.boxofficemojo.com/year/2016/?ref_=bo_cso_table_4" xr:uid="{171BC60D-677C-4A48-9AFD-228FC8E67B3E}"/>
-    <hyperlink ref="D41" r:id="rId5" display="https://www.boxofficemojo.com/year/2019/?ref_=bo_cso_table_5" xr:uid="{45278344-E6AD-4582-9DB7-199741EAB693}"/>
-    <hyperlink ref="D82" r:id="rId6" display="https://www.boxofficemojo.com/year/1999/?ref_=bo_cso_table_6" xr:uid="{93313929-61F7-4821-A895-7F1A442BCBED}"/>
-    <hyperlink ref="D85" r:id="rId7" display="https://www.boxofficemojo.com/year/1977/?ref_=bo_cso_table_7" xr:uid="{616B823F-2693-433A-8784-FCD883B67E11}"/>
-    <hyperlink ref="D77" r:id="rId8" display="https://www.boxofficemojo.com/year/2004/?ref_=bo_cso_table_8" xr:uid="{00945313-7E2E-4C44-93DE-04C6E7AF0143}"/>
-    <hyperlink ref="D35" r:id="rId9" display="https://www.boxofficemojo.com/year/1982/?ref_=bo_cso_table_9" xr:uid="{25BEDE52-FBB3-4D99-A377-4D865AD867CB}"/>
-    <hyperlink ref="D40" r:id="rId10" display="https://www.boxofficemojo.com/year/2013/?ref_=bo_cso_table_10" xr:uid="{88D0B19C-80E4-4775-AAE8-BF0296934D15}"/>
-    <hyperlink ref="D113" r:id="rId11" display="https://www.boxofficemojo.com/year/2016/?ref_=bo_cso_table_11" xr:uid="{F85AF0E4-B1FB-4709-9398-1ADCA22230C3}"/>
-    <hyperlink ref="D33" r:id="rId12" display="https://www.boxofficemojo.com/year/2013/?ref_=bo_cso_table_12" xr:uid="{9FF4EF04-F226-458C-B45B-6A9278B64799}"/>
-    <hyperlink ref="D104" r:id="rId13" display="https://www.boxofficemojo.com/year/2016/?ref_=bo_cso_table_13" xr:uid="{CC25722A-8F95-40EF-B37A-E54853DDEF3C}"/>
-    <hyperlink ref="D54" r:id="rId14" display="https://www.boxofficemojo.com/year/2015/?ref_=bo_cso_table_14" xr:uid="{FB28A1FE-3B23-4FA6-8190-3A092F55C762}"/>
-    <hyperlink ref="D14" r:id="rId15" display="https://www.boxofficemojo.com/year/2019/?ref_=bo_cso_table_15" xr:uid="{4DA0877F-9F68-460C-AC3B-D1913D3F8BE8}"/>
-    <hyperlink ref="D127" r:id="rId16" display="https://www.boxofficemojo.com/year/2016/?ref_=bo_cso_table_16" xr:uid="{2D04578B-80B9-4062-80A1-0B7D64F83BD5}"/>
-    <hyperlink ref="D67" r:id="rId17" display="https://www.boxofficemojo.com/year/2015/?ref_=bo_cso_table_17" xr:uid="{72175BDF-8B1F-40A5-9037-3647FEB0E6EF}"/>
-    <hyperlink ref="D15" r:id="rId18" display="https://www.boxofficemojo.com/year/2010/?ref_=bo_cso_table_18" xr:uid="{350BFF53-8B95-4BDE-BD28-185BC0F49B5B}"/>
-    <hyperlink ref="D78" r:id="rId19" display="https://www.boxofficemojo.com/year/2007/?ref_=bo_cso_table_19" xr:uid="{35AE5AD0-CCA7-45F2-861B-2CC0E5AEDAA0}"/>
-    <hyperlink ref="D52" r:id="rId20" display="https://www.boxofficemojo.com/year/2001/?ref_=bo_cso_table_20" xr:uid="{B4B3CBA6-F89E-4712-9794-1335B1938CC3}"/>
-    <hyperlink ref="D83" r:id="rId21" display="https://www.boxofficemojo.com/year/2002/?ref_=bo_cso_table_21" xr:uid="{0F6EB2E2-34A5-4427-A337-4A27302C5406}"/>
-    <hyperlink ref="D87" r:id="rId22" display="https://www.boxofficemojo.com/year/1983/?ref_=bo_cso_table_22" xr:uid="{2717CBD3-6DEF-4A73-ACB5-962E7F5580AC}"/>
-    <hyperlink ref="D51" r:id="rId23" display="https://www.boxofficemojo.com/year/2009/?ref_=bo_cso_table_23" xr:uid="{7E271042-5694-46F4-BD11-D06E7FE16C6A}"/>
-    <hyperlink ref="D122" r:id="rId24" display="https://www.boxofficemojo.com/year/2009/?ref_=bo_cso_table_24" xr:uid="{1C9C4DEA-5262-47F0-899F-096A651C5FE9}"/>
-    <hyperlink ref="D88" r:id="rId25" display="https://www.boxofficemojo.com/year/2015/?ref_=bo_cso_table_1" xr:uid="{56E847F4-9159-4CAD-9157-33236B233EBB}"/>
-    <hyperlink ref="D19" r:id="rId26" display="https://www.boxofficemojo.com/year/2019/?ref_=bo_cso_table_2" xr:uid="{32872D1B-95F8-4BE8-9D4A-E9F6D1C771D0}"/>
-    <hyperlink ref="D17" r:id="rId27" display="https://www.boxofficemojo.com/year/2009/?ref_=bo_cso_table_3" xr:uid="{2BED3182-D201-4BFD-B69D-70B5088E1EC4}"/>
-    <hyperlink ref="D25" r:id="rId28" display="https://www.boxofficemojo.com/year/2018/?ref_=bo_cso_table_4" xr:uid="{F207600B-C590-4F9A-B94D-70491EB8710A}"/>
-    <hyperlink ref="D20" r:id="rId29" display="https://www.boxofficemojo.com/year/2018/?ref_=bo_cso_table_5" xr:uid="{7545DB3C-AB6C-4122-BB45-2A881A553D52}"/>
-    <hyperlink ref="D115" r:id="rId30" display="https://www.boxofficemojo.com/year/1997/?ref_=bo_cso_table_6" xr:uid="{3D834CC7-2F73-4119-9FCA-4F1966B3D70E}"/>
-    <hyperlink ref="D63" r:id="rId31" display="https://www.boxofficemojo.com/year/2015/?ref_=bo_cso_table_7" xr:uid="{F525C37E-E703-4BB3-95E8-4CAF0C9F0929}"/>
-    <hyperlink ref="D93" r:id="rId32" display="https://www.boxofficemojo.com/year/2012/?ref_=bo_cso_table_8" xr:uid="{8CDF19E0-75E2-4223-8FDA-630BE1DE4D09}"/>
-    <hyperlink ref="D89" r:id="rId33" display="https://www.boxofficemojo.com/year/2017/?ref_=bo_cso_table_9" xr:uid="{AF327F25-F14A-498E-9DAC-3C6F6089E130}"/>
-    <hyperlink ref="D94" r:id="rId34" display="https://www.boxofficemojo.com/year/2008/?ref_=bo_cso_table_10" xr:uid="{FBFE38C6-1633-4398-AB7F-51E9E93AE626}"/>
-    <hyperlink ref="D74" r:id="rId35" display="https://www.boxofficemojo.com/year/2016/?ref_=bo_cso_table_11" xr:uid="{94E03873-7E8E-49EA-81C2-95F293651B90}"/>
-    <hyperlink ref="D86" r:id="rId36" display="https://www.boxofficemojo.com/year/2019/?ref_=bo_cso_table_12" xr:uid="{426E6432-5BEB-46C6-80B7-A81E8E0CF4B3}"/>
-    <hyperlink ref="D18" r:id="rId37" display="https://www.boxofficemojo.com/year/2015/?ref_=bo_cso_table_13" xr:uid="{C165F055-86E8-4BFD-BA24-7ED1A78FDAA1}"/>
-    <hyperlink ref="D95" r:id="rId38" display="https://www.boxofficemojo.com/year/2012/?ref_=bo_cso_table_14" xr:uid="{F0C8BAB8-FB71-478A-9C2C-C1BCE1A09967}"/>
-    <hyperlink ref="D28" r:id="rId39" display="https://www.boxofficemojo.com/year/2019/?ref_=bo_cso_table_15" xr:uid="{E333C659-F253-4921-8B62-76290CF1F4AF}"/>
-    <hyperlink ref="D102" r:id="rId40" display="https://www.boxofficemojo.com/year/2013/?ref_=bo_cso_table_16" xr:uid="{F3C04659-0240-4E7E-9092-10C12852C1A6}"/>
-    <hyperlink ref="D70" r:id="rId41" display="https://www.boxofficemojo.com/year/2006/?ref_=bo_cso_table_17" xr:uid="{2553E50C-BD94-47C8-86C1-137E41E2B976}"/>
-    <hyperlink ref="D64" r:id="rId42" display="https://www.boxofficemojo.com/year/2018/?ref_=bo_cso_table_18" xr:uid="{C30271EF-FF78-4343-B8F1-46B89351F354}"/>
-    <hyperlink ref="D126" r:id="rId43" display="https://www.boxofficemojo.com/year/2017/?ref_=bo_cso_table_19" xr:uid="{B0DBB100-858D-4B98-8EA0-4BCA79FE128E}"/>
-    <hyperlink ref="D55" r:id="rId44" display="https://www.boxofficemojo.com/year/2013/?ref_=bo_cso_table_20" xr:uid="{9C13436E-FB3B-4D6D-BF26-DDDA2FFEADAA}"/>
-    <hyperlink ref="D27" r:id="rId45" display="https://www.boxofficemojo.com/year/2016/?ref_=bo_cso_table_21" xr:uid="{4EA4BC0E-C514-4A7B-9954-195200C8259D}"/>
-    <hyperlink ref="D101" r:id="rId46" display="https://www.boxofficemojo.com/year/2012/?ref_=bo_cso_table_22" xr:uid="{76A5EAF3-006B-44C5-B792-3D0C81AC4636}"/>
-    <hyperlink ref="D79" r:id="rId47" display="https://www.boxofficemojo.com/year/2002/?ref_=bo_cso_table_23" xr:uid="{E6029394-A917-4AA0-A09E-4EE2547AD946}"/>
-    <hyperlink ref="D61" r:id="rId48" display="https://www.boxofficemojo.com/year/2017/?ref_=bo_cso_table_24" xr:uid="{0B3AA031-DC66-4CB7-86B4-2618AAD94C6C}"/>
-    <hyperlink ref="D62" r:id="rId49" display="https://www.boxofficemojo.com/year/1993/?ref_=bo_cso_table_25" xr:uid="{1C2EC11A-5F87-4501-99BD-55553FADFD49}"/>
-    <hyperlink ref="D121" r:id="rId50" display="https://www.boxofficemojo.com/year/2009/?ref_=bo_cso_table_26" xr:uid="{C0B9F8B3-CEB0-444B-A1BF-860E1FA4DA5F}"/>
-    <hyperlink ref="D81" r:id="rId51" display="https://www.boxofficemojo.com/year/2019/?ref_=bo_cso_table_27" xr:uid="{F0FC8970-E705-44BA-A907-CCB9611C22EB}"/>
-    <hyperlink ref="D47" r:id="rId52" display="https://www.boxofficemojo.com/year/2017/?ref_=bo_cso_table_28" xr:uid="{858EFF77-8A7B-4030-8214-A40A6FCDD6AF}"/>
-    <hyperlink ref="D50" r:id="rId53" display="https://www.boxofficemojo.com/year/2011/?ref_=bo_cso_table_29" xr:uid="{24F8ABE9-0F72-4A42-A3E1-E770C94CF837}"/>
-    <hyperlink ref="D84" r:id="rId54" display="https://www.boxofficemojo.com/year/2005/?ref_=bo_cso_table_30" xr:uid="{DBE13F49-2585-4460-B1D9-A76485E76C39}"/>
-    <hyperlink ref="D107" r:id="rId55" display="https://www.boxofficemojo.com/year/2003/?ref_=bo_cso_table_31" xr:uid="{B178A6B6-3CBD-4A67-9236-B44119433E8B}"/>
-    <hyperlink ref="D80" r:id="rId56" display="https://www.boxofficemojo.com/year/2004/?ref_=bo_cso_table_32" xr:uid="{2BBB9145-A775-44C4-83C4-F17C331F1D4B}"/>
-    <hyperlink ref="D42" r:id="rId57" display="https://www.boxofficemojo.com/year/2015/?ref_=bo_cso_table_33" xr:uid="{2397E6A2-1840-40E4-B21B-9C35BAAA7D67}"/>
-    <hyperlink ref="D120" r:id="rId58" display="https://www.boxofficemojo.com/year/2011/?ref_=bo_cso_table_34" xr:uid="{81009C82-4FA8-4929-B638-4BF11D2B3622}"/>
-    <hyperlink ref="D108" r:id="rId59" display="https://www.boxofficemojo.com/year/2002/?ref_=bo_cso_table_35" xr:uid="{FD097F76-514B-488D-ABF3-23B7A5182EE1}"/>
-    <hyperlink ref="D103" r:id="rId60" display="https://www.boxofficemojo.com/year/2014/?ref_=bo_cso_table_36" xr:uid="{DAD97FE4-0397-41D5-9376-B145ED44061C}"/>
-    <hyperlink ref="D111" r:id="rId61" display="https://www.boxofficemojo.com/year/2004/?ref_=bo_cso_table_1" xr:uid="{2307F76D-BC13-448D-B7E0-4D94E784E331}"/>
-    <hyperlink ref="D31" r:id="rId62" display="https://www.boxofficemojo.com/year/2016/?ref_=bo_cso_table_2" xr:uid="{C3B9E11D-0142-4B49-B333-B5C432896111}"/>
-    <hyperlink ref="D16" r:id="rId63" display="https://www.boxofficemojo.com/year/2014/?ref_=bo_cso_table_3" xr:uid="{9F1D9FC0-0D3C-4F31-B46C-6C617FF55C7D}"/>
-    <hyperlink ref="D60" r:id="rId64" display="https://www.boxofficemojo.com/year/2019/?ref_=bo_cso_table_4" xr:uid="{11BBF9D7-2361-4F16-9A9A-5FE16607065A}"/>
-    <hyperlink ref="D56" r:id="rId65" display="https://www.boxofficemojo.com/year/2017/?ref_=bo_cso_table_5" xr:uid="{21AB9D2B-29CB-45FF-BCDE-EBE8F1595E09}"/>
-    <hyperlink ref="D32" r:id="rId66" display="https://www.boxofficemojo.com/year/2018/?ref_=bo_cso_table_6" xr:uid="{CDEF72DC-A393-445B-8ACE-0C24AD326FA5}"/>
-    <hyperlink ref="D110" r:id="rId67" display="https://www.boxofficemojo.com/year/2003/?ref_=bo_cso_table_7" xr:uid="{B9F29025-0304-492B-AD68-4131B147A433}"/>
-    <hyperlink ref="D98" r:id="rId68" display="https://www.boxofficemojo.com/year/2009/?ref_=bo_cso_table_8" xr:uid="{15B4F609-7ABA-40A4-829C-519AE69651DD}"/>
-    <hyperlink ref="D99" r:id="rId69" display="https://www.boxofficemojo.com/year/2011/?ref_=bo_cso_table_9" xr:uid="{2E4DE89B-AD3B-4FE8-96C4-FAEA107A72BF}"/>
-    <hyperlink ref="D24" r:id="rId70" display="https://www.boxofficemojo.com/year/1984/?ref_=bo_cso_table_10" xr:uid="{D11E729E-4586-4C23-A0F2-62F0982E13EA}"/>
-    <hyperlink ref="D65" r:id="rId71" display="https://www.boxofficemojo.com/year/2017/?ref_=bo_cso_table_12" xr:uid="{EACBB835-54C0-48BD-AF65-8B67C02161E0}"/>
-    <hyperlink ref="D91" r:id="rId72" display="https://www.boxofficemojo.com/year/2012/?ref_=bo_cso_table_13" xr:uid="{AF609A7C-5312-4CDC-8A5B-DA2962C7A387}"/>
-    <hyperlink ref="D75" r:id="rId73" display="https://www.boxofficemojo.com/year/1998/?ref_=bo_cso_table_14" xr:uid="{ECE2C6B9-5512-49F0-BB70-161C603B29FC}"/>
-    <hyperlink ref="D11" r:id="rId74" display="https://www.boxofficemojo.com/year/2018/?ref_=bo_cso_table_15" xr:uid="{CCB49279-4395-4CEF-94CC-095E153EB3AD}"/>
-    <hyperlink ref="D57" r:id="rId75" display="https://www.boxofficemojo.com/year/2019/?ref_=bo_cso_table_16" xr:uid="{1AA513BB-6147-4405-8615-3D99B584902B}"/>
-    <hyperlink ref="D10" r:id="rId76" display="https://www.boxofficemojo.com/year/2007/?ref_=bo_cso_table_17" xr:uid="{DFA0E72C-6DAC-4BCE-A97E-4A72859A75DE}"/>
-    <hyperlink ref="D125" r:id="rId77" display="https://www.boxofficemojo.com/year/2005/?ref_=bo_cso_table_18" xr:uid="{3494C9CC-5EE1-4F1F-B56F-5DE01D3E06FF}"/>
-    <hyperlink ref="D92" r:id="rId78" display="https://www.boxofficemojo.com/year/1991/?ref_=bo_cso_table_19" xr:uid="{DA9F9ACA-D469-43D2-A06A-1D7030FB495E}"/>
-    <hyperlink ref="D21" r:id="rId79" display="https://www.boxofficemojo.com/year/2020/?ref_=bo_cso_table_20" xr:uid="{F4C0605C-2A48-4F2C-8CDF-F3D5A58090BC}"/>
-    <hyperlink ref="D9" r:id="rId80" display="https://www.boxofficemojo.com/year/2014/?ref_=bo_cso_table_21" xr:uid="{4DB93415-7779-4946-8A4F-0F2792C3741D}"/>
-    <hyperlink ref="D44" r:id="rId81" display="https://www.boxofficemojo.com/year/2000/?ref_=bo_cso_table_22" xr:uid="{28B12753-7B42-474C-B27C-EFEA3448F1CD}"/>
-    <hyperlink ref="D112" r:id="rId82" display="https://www.boxofficemojo.com/year/2015/?ref_=bo_cso_table_23" xr:uid="{8223E9CC-A840-4901-BA06-2B643033AD33}"/>
-    <hyperlink ref="D71" r:id="rId83" display="https://www.boxofficemojo.com/year/1990/?ref_=bo_cso_table_24" xr:uid="{F9BE7C9A-FF95-4536-BE79-EE619B7D2D40}"/>
-    <hyperlink ref="D114" r:id="rId84" display="https://www.boxofficemojo.com/year/1998/?ref_=bo_cso_table_25" xr:uid="{5DDD7293-EBEC-478F-840C-044FE0E0ACD9}"/>
-    <hyperlink ref="D43" r:id="rId85" display="https://www.boxofficemojo.com/year/2017/?ref_=bo_cso_table_26" xr:uid="{18DAFCF1-25DC-4BBF-8B02-CB3B27EAAEE6}"/>
-    <hyperlink ref="D123" r:id="rId86" display="https://www.boxofficemojo.com/year/2019/?ref_=bo_cso_table_27" xr:uid="{E3B125E8-F586-4D94-9657-32D17156BA55}"/>
-    <hyperlink ref="D12" r:id="rId87" display="https://www.boxofficemojo.com/year/1997/?ref_=bo_cso_table_28" xr:uid="{96156668-FF31-470C-A7F5-6E3C7B1F83D9}"/>
-    <hyperlink ref="D72" r:id="rId88" display="https://www.boxofficemojo.com/year/1988/?ref_=bo_cso_table_29" xr:uid="{63601A87-FAEB-4B8D-BB11-3C6A6C4AA2B6}"/>
-    <hyperlink ref="D109" r:id="rId89" display="https://www.boxofficemojo.com/year/1999/?ref_=bo_cso_table_30" xr:uid="{55B3799F-56C0-438C-AEDC-08F094C16125}"/>
-    <hyperlink ref="D59" r:id="rId90" display="https://www.boxofficemojo.com/year/2019/?ref_=bo_cso_table_31" xr:uid="{6CAE90C3-B7C3-44D6-B2C2-6B09841F9466}"/>
-    <hyperlink ref="D26" r:id="rId91" display="https://www.boxofficemojo.com/year/2011/?ref_=bo_cso_table_32" xr:uid="{A21A84B2-8A52-490D-9006-6CA60B12BDC8}"/>
-    <hyperlink ref="D45" r:id="rId92" display="https://www.boxofficemojo.com/year/2014/?ref_=bo_cso_table_33" xr:uid="{1AEE906C-BEA1-455A-9C02-36D668B5CF86}"/>
-    <hyperlink ref="D37" r:id="rId93" display="https://www.boxofficemojo.com/year/2015/?ref_=bo_cso_table_34" xr:uid="{1FE1F7DC-3BEC-4E5A-9BDD-B7432BB326D9}"/>
-    <hyperlink ref="D49" r:id="rId94" display="https://www.boxofficemojo.com/year/2001/?ref_=bo_cso_table_35" xr:uid="{6CC349D0-CFC2-475C-822B-5D9090D57698}"/>
-    <hyperlink ref="D34" r:id="rId95" display="https://www.boxofficemojo.com/year/2012/?ref_=bo_cso_table_36" xr:uid="{FDB7C390-3B59-46D0-B9F5-9A0E41AC5685}"/>
-    <hyperlink ref="D90" r:id="rId96" display="https://www.boxofficemojo.com/year/2015/?ref_=bo_cso_table_37" xr:uid="{2047B90D-660E-4F8F-B021-8353F3B7463D}"/>
-    <hyperlink ref="D100" r:id="rId97" display="https://www.boxofficemojo.com/year/2013/?ref_=bo_cso_table_38" xr:uid="{07A938D3-DE78-4FA2-8A49-D97392490EEA}"/>
-    <hyperlink ref="D48" r:id="rId98" display="https://www.boxofficemojo.com/year/2018/?ref_=bo_cso_table_39" xr:uid="{7D0C819B-843D-478B-854A-5BEB378F3CA8}"/>
-    <hyperlink ref="D8" r:id="rId99" display="https://www.boxofficemojo.com/year/2019/?ref_=bo_cso_table_40" xr:uid="{E118BED0-3F13-45A5-9E69-3C529532D33E}"/>
-    <hyperlink ref="D97" r:id="rId100" display="https://www.boxofficemojo.com/year/1993/?ref_=bo_cso_table_41" xr:uid="{2B6556AB-ACA9-4417-B6BF-64BDD123860E}"/>
-    <hyperlink ref="D76" r:id="rId101" display="https://www.boxofficemojo.com/year/2000/?ref_=bo_cso_table_42" xr:uid="{BF7DE700-3D37-47A0-8B15-45FF52806926}"/>
-    <hyperlink ref="D36" r:id="rId102" display="https://www.boxofficemojo.com/year/1987/?ref_=bo_cso_table_43" xr:uid="{9CDBD30F-CFD9-451B-A0BB-4FD61037FBD6}"/>
-    <hyperlink ref="D66" r:id="rId103" display="https://www.boxofficemojo.com/year/2015/?ref_=bo_cso_table_44" xr:uid="{A2C2D49C-939F-4812-82F4-6C2E02212820}"/>
-    <hyperlink ref="D58" r:id="rId104" display="https://www.boxofficemojo.com/year/1996/?ref_=bo_cso_table_45" xr:uid="{A450E290-83A1-4AD9-B955-419A2531BC45}"/>
+    <hyperlink ref="D53" r:id="rId3" display="https://www.boxofficemojo.com/year/2018/?ref_=bo_cso_table_1" xr:uid="{40A87CB3-DEE4-41E3-92CE-A890D8DC5CAB}"/>
+    <hyperlink ref="D106" r:id="rId4" display="https://www.boxofficemojo.com/year/2019/?ref_=bo_cso_table_2" xr:uid="{DE2185E5-10B5-4B13-82FD-AE34A5659279}"/>
+    <hyperlink ref="D23" r:id="rId5" display="https://www.boxofficemojo.com/year/2017/?ref_=bo_cso_table_3" xr:uid="{5F621E44-F95E-42F3-B0B4-C94DD5AED314}"/>
+    <hyperlink ref="D38" r:id="rId6" display="https://www.boxofficemojo.com/year/2016/?ref_=bo_cso_table_4" xr:uid="{171BC60D-677C-4A48-9AFD-228FC8E67B3E}"/>
+    <hyperlink ref="D41" r:id="rId7" display="https://www.boxofficemojo.com/year/2019/?ref_=bo_cso_table_5" xr:uid="{45278344-E6AD-4582-9DB7-199741EAB693}"/>
+    <hyperlink ref="D82" r:id="rId8" display="https://www.boxofficemojo.com/year/1999/?ref_=bo_cso_table_6" xr:uid="{93313929-61F7-4821-A895-7F1A442BCBED}"/>
+    <hyperlink ref="D85" r:id="rId9" display="https://www.boxofficemojo.com/year/1977/?ref_=bo_cso_table_7" xr:uid="{616B823F-2693-433A-8784-FCD883B67E11}"/>
+    <hyperlink ref="D77" r:id="rId10" display="https://www.boxofficemojo.com/year/2004/?ref_=bo_cso_table_8" xr:uid="{00945313-7E2E-4C44-93DE-04C6E7AF0143}"/>
+    <hyperlink ref="D35" r:id="rId11" display="https://www.boxofficemojo.com/year/1982/?ref_=bo_cso_table_9" xr:uid="{25BEDE52-FBB3-4D99-A377-4D865AD867CB}"/>
+    <hyperlink ref="D40" r:id="rId12" display="https://www.boxofficemojo.com/year/2013/?ref_=bo_cso_table_10" xr:uid="{88D0B19C-80E4-4775-AAE8-BF0296934D15}"/>
+    <hyperlink ref="D113" r:id="rId13" display="https://www.boxofficemojo.com/year/2016/?ref_=bo_cso_table_11" xr:uid="{F85AF0E4-B1FB-4709-9398-1ADCA22230C3}"/>
+    <hyperlink ref="D33" r:id="rId14" display="https://www.boxofficemojo.com/year/2013/?ref_=bo_cso_table_12" xr:uid="{9FF4EF04-F226-458C-B45B-6A9278B64799}"/>
+    <hyperlink ref="D104" r:id="rId15" display="https://www.boxofficemojo.com/year/2016/?ref_=bo_cso_table_13" xr:uid="{CC25722A-8F95-40EF-B37A-E54853DDEF3C}"/>
+    <hyperlink ref="D54" r:id="rId16" display="https://www.boxofficemojo.com/year/2015/?ref_=bo_cso_table_14" xr:uid="{FB28A1FE-3B23-4FA6-8190-3A092F55C762}"/>
+    <hyperlink ref="D14" r:id="rId17" display="https://www.boxofficemojo.com/year/2019/?ref_=bo_cso_table_15" xr:uid="{4DA0877F-9F68-460C-AC3B-D1913D3F8BE8}"/>
+    <hyperlink ref="D127" r:id="rId18" display="https://www.boxofficemojo.com/year/2016/?ref_=bo_cso_table_16" xr:uid="{2D04578B-80B9-4062-80A1-0B7D64F83BD5}"/>
+    <hyperlink ref="D67" r:id="rId19" display="https://www.boxofficemojo.com/year/2015/?ref_=bo_cso_table_17" xr:uid="{72175BDF-8B1F-40A5-9037-3647FEB0E6EF}"/>
+    <hyperlink ref="D15" r:id="rId20" display="https://www.boxofficemojo.com/year/2010/?ref_=bo_cso_table_18" xr:uid="{350BFF53-8B95-4BDE-BD28-185BC0F49B5B}"/>
+    <hyperlink ref="D78" r:id="rId21" display="https://www.boxofficemojo.com/year/2007/?ref_=bo_cso_table_19" xr:uid="{35AE5AD0-CCA7-45F2-861B-2CC0E5AEDAA0}"/>
+    <hyperlink ref="D52" r:id="rId22" display="https://www.boxofficemojo.com/year/2001/?ref_=bo_cso_table_20" xr:uid="{B4B3CBA6-F89E-4712-9794-1335B1938CC3}"/>
+    <hyperlink ref="D83" r:id="rId23" display="https://www.boxofficemojo.com/year/2002/?ref_=bo_cso_table_21" xr:uid="{0F6EB2E2-34A5-4427-A337-4A27302C5406}"/>
+    <hyperlink ref="D87" r:id="rId24" display="https://www.boxofficemojo.com/year/1983/?ref_=bo_cso_table_22" xr:uid="{2717CBD3-6DEF-4A73-ACB5-962E7F5580AC}"/>
+    <hyperlink ref="D51" r:id="rId25" display="https://www.boxofficemojo.com/year/2009/?ref_=bo_cso_table_23" xr:uid="{7E271042-5694-46F4-BD11-D06E7FE16C6A}"/>
+    <hyperlink ref="D122" r:id="rId26" display="https://www.boxofficemojo.com/year/2009/?ref_=bo_cso_table_24" xr:uid="{1C9C4DEA-5262-47F0-899F-096A651C5FE9}"/>
+    <hyperlink ref="D88" r:id="rId27" display="https://www.boxofficemojo.com/year/2015/?ref_=bo_cso_table_1" xr:uid="{56E847F4-9159-4CAD-9157-33236B233EBB}"/>
+    <hyperlink ref="D19" r:id="rId28" display="https://www.boxofficemojo.com/year/2019/?ref_=bo_cso_table_2" xr:uid="{32872D1B-95F8-4BE8-9D4A-E9F6D1C771D0}"/>
+    <hyperlink ref="D17" r:id="rId29" display="https://www.boxofficemojo.com/year/2009/?ref_=bo_cso_table_3" xr:uid="{2BED3182-D201-4BFD-B69D-70B5088E1EC4}"/>
+    <hyperlink ref="D25" r:id="rId30" display="https://www.boxofficemojo.com/year/2018/?ref_=bo_cso_table_4" xr:uid="{F207600B-C590-4F9A-B94D-70491EB8710A}"/>
+    <hyperlink ref="D20" r:id="rId31" display="https://www.boxofficemojo.com/year/2018/?ref_=bo_cso_table_5" xr:uid="{7545DB3C-AB6C-4122-BB45-2A881A553D52}"/>
+    <hyperlink ref="D115" r:id="rId32" display="https://www.boxofficemojo.com/year/1997/?ref_=bo_cso_table_6" xr:uid="{3D834CC7-2F73-4119-9FCA-4F1966B3D70E}"/>
+    <hyperlink ref="D63" r:id="rId33" display="https://www.boxofficemojo.com/year/2015/?ref_=bo_cso_table_7" xr:uid="{F525C37E-E703-4BB3-95E8-4CAF0C9F0929}"/>
+    <hyperlink ref="D93" r:id="rId34" display="https://www.boxofficemojo.com/year/2012/?ref_=bo_cso_table_8" xr:uid="{8CDF19E0-75E2-4223-8FDA-630BE1DE4D09}"/>
+    <hyperlink ref="D89" r:id="rId35" display="https://www.boxofficemojo.com/year/2017/?ref_=bo_cso_table_9" xr:uid="{AF327F25-F14A-498E-9DAC-3C6F6089E130}"/>
+    <hyperlink ref="D94" r:id="rId36" display="https://www.boxofficemojo.com/year/2008/?ref_=bo_cso_table_10" xr:uid="{FBFE38C6-1633-4398-AB7F-51E9E93AE626}"/>
+    <hyperlink ref="D74" r:id="rId37" display="https://www.boxofficemojo.com/year/2016/?ref_=bo_cso_table_11" xr:uid="{94E03873-7E8E-49EA-81C2-95F293651B90}"/>
+    <hyperlink ref="D86" r:id="rId38" display="https://www.boxofficemojo.com/year/2019/?ref_=bo_cso_table_12" xr:uid="{426E6432-5BEB-46C6-80B7-A81E8E0CF4B3}"/>
+    <hyperlink ref="D18" r:id="rId39" display="https://www.boxofficemojo.com/year/2015/?ref_=bo_cso_table_13" xr:uid="{C165F055-86E8-4BFD-BA24-7ED1A78FDAA1}"/>
+    <hyperlink ref="D95" r:id="rId40" display="https://www.boxofficemojo.com/year/2012/?ref_=bo_cso_table_14" xr:uid="{F0C8BAB8-FB71-478A-9C2C-C1BCE1A09967}"/>
+    <hyperlink ref="D28" r:id="rId41" display="https://www.boxofficemojo.com/year/2019/?ref_=bo_cso_table_15" xr:uid="{E333C659-F253-4921-8B62-76290CF1F4AF}"/>
+    <hyperlink ref="D102" r:id="rId42" display="https://www.boxofficemojo.com/year/2013/?ref_=bo_cso_table_16" xr:uid="{F3C04659-0240-4E7E-9092-10C12852C1A6}"/>
+    <hyperlink ref="D70" r:id="rId43" display="https://www.boxofficemojo.com/year/2006/?ref_=bo_cso_table_17" xr:uid="{2553E50C-BD94-47C8-86C1-137E41E2B976}"/>
+    <hyperlink ref="D64" r:id="rId44" display="https://www.boxofficemojo.com/year/2018/?ref_=bo_cso_table_18" xr:uid="{C30271EF-FF78-4343-B8F1-46B89351F354}"/>
+    <hyperlink ref="D126" r:id="rId45" display="https://www.boxofficemojo.com/year/2017/?ref_=bo_cso_table_19" xr:uid="{B0DBB100-858D-4B98-8EA0-4BCA79FE128E}"/>
+    <hyperlink ref="D55" r:id="rId46" display="https://www.boxofficemojo.com/year/2013/?ref_=bo_cso_table_20" xr:uid="{9C13436E-FB3B-4D6D-BF26-DDDA2FFEADAA}"/>
+    <hyperlink ref="D27" r:id="rId47" display="https://www.boxofficemojo.com/year/2016/?ref_=bo_cso_table_21" xr:uid="{4EA4BC0E-C514-4A7B-9954-195200C8259D}"/>
+    <hyperlink ref="D101" r:id="rId48" display="https://www.boxofficemojo.com/year/2012/?ref_=bo_cso_table_22" xr:uid="{76A5EAF3-006B-44C5-B792-3D0C81AC4636}"/>
+    <hyperlink ref="D79" r:id="rId49" display="https://www.boxofficemojo.com/year/2002/?ref_=bo_cso_table_23" xr:uid="{E6029394-A917-4AA0-A09E-4EE2547AD946}"/>
+    <hyperlink ref="D61" r:id="rId50" display="https://www.boxofficemojo.com/year/2017/?ref_=bo_cso_table_24" xr:uid="{0B3AA031-DC66-4CB7-86B4-2618AAD94C6C}"/>
+    <hyperlink ref="D62" r:id="rId51" display="https://www.boxofficemojo.com/year/1993/?ref_=bo_cso_table_25" xr:uid="{1C2EC11A-5F87-4501-99BD-55553FADFD49}"/>
+    <hyperlink ref="D121" r:id="rId52" display="https://www.boxofficemojo.com/year/2009/?ref_=bo_cso_table_26" xr:uid="{C0B9F8B3-CEB0-444B-A1BF-860E1FA4DA5F}"/>
+    <hyperlink ref="D81" r:id="rId53" display="https://www.boxofficemojo.com/year/2019/?ref_=bo_cso_table_27" xr:uid="{F0FC8970-E705-44BA-A907-CCB9611C22EB}"/>
+    <hyperlink ref="D47" r:id="rId54" display="https://www.boxofficemojo.com/year/2017/?ref_=bo_cso_table_28" xr:uid="{858EFF77-8A7B-4030-8214-A40A6FCDD6AF}"/>
+    <hyperlink ref="D50" r:id="rId55" display="https://www.boxofficemojo.com/year/2011/?ref_=bo_cso_table_29" xr:uid="{24F8ABE9-0F72-4A42-A3E1-E770C94CF837}"/>
+    <hyperlink ref="D84" r:id="rId56" display="https://www.boxofficemojo.com/year/2005/?ref_=bo_cso_table_30" xr:uid="{DBE13F49-2585-4460-B1D9-A76485E76C39}"/>
+    <hyperlink ref="D107" r:id="rId57" display="https://www.boxofficemojo.com/year/2003/?ref_=bo_cso_table_31" xr:uid="{B178A6B6-3CBD-4A67-9236-B44119433E8B}"/>
+    <hyperlink ref="D80" r:id="rId58" display="https://www.boxofficemojo.com/year/2004/?ref_=bo_cso_table_32" xr:uid="{2BBB9145-A775-44C4-83C4-F17C331F1D4B}"/>
+    <hyperlink ref="D42" r:id="rId59" display="https://www.boxofficemojo.com/year/2015/?ref_=bo_cso_table_33" xr:uid="{2397E6A2-1840-40E4-B21B-9C35BAAA7D67}"/>
+    <hyperlink ref="D120" r:id="rId60" display="https://www.boxofficemojo.com/year/2011/?ref_=bo_cso_table_34" xr:uid="{81009C82-4FA8-4929-B638-4BF11D2B3622}"/>
+    <hyperlink ref="D108" r:id="rId61" display="https://www.boxofficemojo.com/year/2002/?ref_=bo_cso_table_35" xr:uid="{FD097F76-514B-488D-ABF3-23B7A5182EE1}"/>
+    <hyperlink ref="D103" r:id="rId62" display="https://www.boxofficemojo.com/year/2014/?ref_=bo_cso_table_36" xr:uid="{DAD97FE4-0397-41D5-9376-B145ED44061C}"/>
+    <hyperlink ref="D111" r:id="rId63" display="https://www.boxofficemojo.com/year/2004/?ref_=bo_cso_table_1" xr:uid="{2307F76D-BC13-448D-B7E0-4D94E784E331}"/>
+    <hyperlink ref="D31" r:id="rId64" display="https://www.boxofficemojo.com/year/2016/?ref_=bo_cso_table_2" xr:uid="{C3B9E11D-0142-4B49-B333-B5C432896111}"/>
+    <hyperlink ref="D16" r:id="rId65" display="https://www.boxofficemojo.com/year/2014/?ref_=bo_cso_table_3" xr:uid="{9F1D9FC0-0D3C-4F31-B46C-6C617FF55C7D}"/>
+    <hyperlink ref="D60" r:id="rId66" display="https://www.boxofficemojo.com/year/2019/?ref_=bo_cso_table_4" xr:uid="{11BBF9D7-2361-4F16-9A9A-5FE16607065A}"/>
+    <hyperlink ref="D56" r:id="rId67" display="https://www.boxofficemojo.com/year/2017/?ref_=bo_cso_table_5" xr:uid="{21AB9D2B-29CB-45FF-BCDE-EBE8F1595E09}"/>
+    <hyperlink ref="D32" r:id="rId68" display="https://www.boxofficemojo.com/year/2018/?ref_=bo_cso_table_6" xr:uid="{CDEF72DC-A393-445B-8ACE-0C24AD326FA5}"/>
+    <hyperlink ref="D110" r:id="rId69" display="https://www.boxofficemojo.com/year/2003/?ref_=bo_cso_table_7" xr:uid="{B9F29025-0304-492B-AD68-4131B147A433}"/>
+    <hyperlink ref="D98" r:id="rId70" display="https://www.boxofficemojo.com/year/2009/?ref_=bo_cso_table_8" xr:uid="{15B4F609-7ABA-40A4-829C-519AE69651DD}"/>
+    <hyperlink ref="D99" r:id="rId71" display="https://www.boxofficemojo.com/year/2011/?ref_=bo_cso_table_9" xr:uid="{2E4DE89B-AD3B-4FE8-96C4-FAEA107A72BF}"/>
+    <hyperlink ref="D24" r:id="rId72" display="https://www.boxofficemojo.com/year/1984/?ref_=bo_cso_table_10" xr:uid="{D11E729E-4586-4C23-A0F2-62F0982E13EA}"/>
+    <hyperlink ref="D65" r:id="rId73" display="https://www.boxofficemojo.com/year/2017/?ref_=bo_cso_table_12" xr:uid="{EACBB835-54C0-48BD-AF65-8B67C02161E0}"/>
+    <hyperlink ref="D91" r:id="rId74" display="https://www.boxofficemojo.com/year/2012/?ref_=bo_cso_table_13" xr:uid="{AF609A7C-5312-4CDC-8A5B-DA2962C7A387}"/>
+    <hyperlink ref="D75" r:id="rId75" display="https://www.boxofficemojo.com/year/1998/?ref_=bo_cso_table_14" xr:uid="{ECE2C6B9-5512-49F0-BB70-161C603B29FC}"/>
+    <hyperlink ref="D11" r:id="rId76" display="https://www.boxofficemojo.com/year/2018/?ref_=bo_cso_table_15" xr:uid="{CCB49279-4395-4CEF-94CC-095E153EB3AD}"/>
+    <hyperlink ref="D57" r:id="rId77" display="https://www.boxofficemojo.com/year/2019/?ref_=bo_cso_table_16" xr:uid="{1AA513BB-6147-4405-8615-3D99B584902B}"/>
+    <hyperlink ref="D10" r:id="rId78" display="https://www.boxofficemojo.com/year/2007/?ref_=bo_cso_table_17" xr:uid="{DFA0E72C-6DAC-4BCE-A97E-4A72859A75DE}"/>
+    <hyperlink ref="D125" r:id="rId79" display="https://www.boxofficemojo.com/year/2005/?ref_=bo_cso_table_18" xr:uid="{3494C9CC-5EE1-4F1F-B56F-5DE01D3E06FF}"/>
+    <hyperlink ref="D92" r:id="rId80" display="https://www.boxofficemojo.com/year/1991/?ref_=bo_cso_table_19" xr:uid="{DA9F9ACA-D469-43D2-A06A-1D7030FB495E}"/>
+    <hyperlink ref="D21" r:id="rId81" display="https://www.boxofficemojo.com/year/2020/?ref_=bo_cso_table_20" xr:uid="{F4C0605C-2A48-4F2C-8CDF-F3D5A58090BC}"/>
+    <hyperlink ref="D9" r:id="rId82" display="https://www.boxofficemojo.com/year/2014/?ref_=bo_cso_table_21" xr:uid="{4DB93415-7779-4946-8A4F-0F2792C3741D}"/>
+    <hyperlink ref="D44" r:id="rId83" display="https://www.boxofficemojo.com/year/2000/?ref_=bo_cso_table_22" xr:uid="{28B12753-7B42-474C-B27C-EFEA3448F1CD}"/>
+    <hyperlink ref="D112" r:id="rId84" display="https://www.boxofficemojo.com/year/2015/?ref_=bo_cso_table_23" xr:uid="{8223E9CC-A840-4901-BA06-2B643033AD33}"/>
+    <hyperlink ref="D71" r:id="rId85" display="https://www.boxofficemojo.com/year/1990/?ref_=bo_cso_table_24" xr:uid="{F9BE7C9A-FF95-4536-BE79-EE619B7D2D40}"/>
+    <hyperlink ref="D114" r:id="rId86" display="https://www.boxofficemojo.com/year/1998/?ref_=bo_cso_table_25" xr:uid="{5DDD7293-EBEC-478F-840C-044FE0E0ACD9}"/>
+    <hyperlink ref="D43" r:id="rId87" display="https://www.boxofficemojo.com/year/2017/?ref_=bo_cso_table_26" xr:uid="{18DAFCF1-25DC-4BBF-8B02-CB3B27EAAEE6}"/>
+    <hyperlink ref="D123" r:id="rId88" display="https://www.boxofficemojo.com/year/2019/?ref_=bo_cso_table_27" xr:uid="{E3B125E8-F586-4D94-9657-32D17156BA55}"/>
+    <hyperlink ref="D12" r:id="rId89" display="https://www.boxofficemojo.com/year/1997/?ref_=bo_cso_table_28" xr:uid="{96156668-FF31-470C-A7F5-6E3C7B1F83D9}"/>
+    <hyperlink ref="D72" r:id="rId90" display="https://www.boxofficemojo.com/year/1988/?ref_=bo_cso_table_29" xr:uid="{63601A87-FAEB-4B8D-BB11-3C6A6C4AA2B6}"/>
+    <hyperlink ref="D109" r:id="rId91" display="https://www.boxofficemojo.com/year/1999/?ref_=bo_cso_table_30" xr:uid="{55B3799F-56C0-438C-AEDC-08F094C16125}"/>
+    <hyperlink ref="D59" r:id="rId92" display="https://www.boxofficemojo.com/year/2019/?ref_=bo_cso_table_31" xr:uid="{6CAE90C3-B7C3-44D6-B2C2-6B09841F9466}"/>
+    <hyperlink ref="D26" r:id="rId93" display="https://www.boxofficemojo.com/year/2011/?ref_=bo_cso_table_32" xr:uid="{A21A84B2-8A52-490D-9006-6CA60B12BDC8}"/>
+    <hyperlink ref="D45" r:id="rId94" display="https://www.boxofficemojo.com/year/2014/?ref_=bo_cso_table_33" xr:uid="{1AEE906C-BEA1-455A-9C02-36D668B5CF86}"/>
+    <hyperlink ref="D37" r:id="rId95" display="https://www.boxofficemojo.com/year/2015/?ref_=bo_cso_table_34" xr:uid="{1FE1F7DC-3BEC-4E5A-9BDD-B7432BB326D9}"/>
+    <hyperlink ref="D49" r:id="rId96" display="https://www.boxofficemojo.com/year/2001/?ref_=bo_cso_table_35" xr:uid="{6CC349D0-CFC2-475C-822B-5D9090D57698}"/>
+    <hyperlink ref="D34" r:id="rId97" display="https://www.boxofficemojo.com/year/2012/?ref_=bo_cso_table_36" xr:uid="{FDB7C390-3B59-46D0-B9F5-9A0E41AC5685}"/>
+    <hyperlink ref="D90" r:id="rId98" display="https://www.boxofficemojo.com/year/2015/?ref_=bo_cso_table_37" xr:uid="{2047B90D-660E-4F8F-B021-8353F3B7463D}"/>
+    <hyperlink ref="D100" r:id="rId99" display="https://www.boxofficemojo.com/year/2013/?ref_=bo_cso_table_38" xr:uid="{07A938D3-DE78-4FA2-8A49-D97392490EEA}"/>
+    <hyperlink ref="D48" r:id="rId100" display="https://www.boxofficemojo.com/year/2018/?ref_=bo_cso_table_39" xr:uid="{7D0C819B-843D-478B-854A-5BEB378F3CA8}"/>
+    <hyperlink ref="D8" r:id="rId101" display="https://www.boxofficemojo.com/year/2019/?ref_=bo_cso_table_40" xr:uid="{E118BED0-3F13-45A5-9E69-3C529532D33E}"/>
+    <hyperlink ref="D97" r:id="rId102" display="https://www.boxofficemojo.com/year/1993/?ref_=bo_cso_table_41" xr:uid="{2B6556AB-ACA9-4417-B6BF-64BDD123860E}"/>
+    <hyperlink ref="D76" r:id="rId103" display="https://www.boxofficemojo.com/year/2000/?ref_=bo_cso_table_42" xr:uid="{BF7DE700-3D37-47A0-8B15-45FF52806926}"/>
+    <hyperlink ref="D36" r:id="rId104" display="https://www.boxofficemojo.com/year/1987/?ref_=bo_cso_table_43" xr:uid="{9CDBD30F-CFD9-451B-A0BB-4FD61037FBD6}"/>
+    <hyperlink ref="D66" r:id="rId105" display="https://www.boxofficemojo.com/year/2015/?ref_=bo_cso_table_44" xr:uid="{A2C2D49C-939F-4812-82F4-6C2E02212820}"/>
+    <hyperlink ref="D58" r:id="rId106" display="https://www.boxofficemojo.com/year/1996/?ref_=bo_cso_table_45" xr:uid="{A450E290-83A1-4AD9-B955-419A2531BC45}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId105"/>
+  <drawing r:id="rId107"/>
   <tableParts count="1">
-    <tablePart r:id="rId106"/>
+    <tablePart r:id="rId108"/>
   </tableParts>
 </worksheet>
 </file>